--- a/Mode_Solver_1D/Dispersion_1D/1D_modes_dispersion.xlsx
+++ b/Mode_Solver_1D/Dispersion_1D/1D_modes_dispersion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:U101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,46 +499,110 @@
           <t>Alpha_TM_3</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Beta_TE_4</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Alpha_TE_4</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Beta_TM_4</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Alpha_TM_4</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Beta_TE_5</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Alpha_TE_5</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Beta_TM_5</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Alpha_TM_5</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>1.419380211806412</v>
+        <v>0.8903271766805427</v>
       </c>
       <c r="C2" t="n">
-        <v>4.552603069227757e-16</v>
+        <v>6.072302496427222e-16</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9108936327895594</v>
+        <v>1.001004520537518</v>
       </c>
       <c r="E2" t="n">
-        <v>2.044348129948755e-14</v>
+        <v>2.736547086854712e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>6.763781920276317e-16</v>
+        <v>2.284133436377e-15</v>
       </c>
       <c r="G2" t="n">
-        <v>1.592663824706724</v>
+        <v>0.9599519608178028</v>
       </c>
       <c r="H2" t="n">
-        <v>1.279771825142574e-14</v>
+        <v>1.046780703840354</v>
       </c>
       <c r="I2" t="n">
-        <v>1.329603987563786</v>
+        <v>1.284689561504833e-09</v>
       </c>
       <c r="J2" t="n">
-        <v>2.121628876209981e-16</v>
+        <v>1.249717563821558e-16</v>
       </c>
       <c r="K2" t="n">
-        <v>3.564803395994584</v>
+        <v>2.132090849148137</v>
       </c>
       <c r="L2" t="n">
-        <v>2.923652358633057e-16</v>
+        <v>7.539843640479405e-09</v>
       </c>
       <c r="M2" t="n">
-        <v>3.895670154166703</v>
+        <v>1.00702333443144</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.094330272893442e-16</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.828407382593848</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4.959443474367514e-10</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.865833444301997</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5.70896116981395e-16</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3.200093578463521</v>
+      </c>
+      <c r="T2" t="n">
+        <v>7.737159184549891e-10</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.767700245466687</v>
       </c>
     </row>
     <row r="3">
@@ -546,40 +610,64 @@
         <v>10.90909090909091</v>
       </c>
       <c r="B3" t="n">
-        <v>1.50002961722301</v>
+        <v>0.9160843682981773</v>
       </c>
       <c r="C3" t="n">
-        <v>8.270976013451519e-16</v>
+        <v>1.393471659923409e-16</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9385786367346085</v>
+        <v>1.096830493499734</v>
       </c>
       <c r="E3" t="n">
-        <v>2.750414733030131e-14</v>
+        <v>2.330149821425222e-09</v>
       </c>
       <c r="F3" t="n">
-        <v>1.300836811260712e-15</v>
+        <v>3.095012131618897e-16</v>
       </c>
       <c r="G3" t="n">
-        <v>1.342668182894345</v>
+        <v>0.7263027766764146</v>
       </c>
       <c r="H3" t="n">
-        <v>3.280329142858587e-14</v>
+        <v>1.001004295668787</v>
       </c>
       <c r="I3" t="n">
-        <v>1.142326657371651</v>
+        <v>2.973565488820825e-14</v>
       </c>
       <c r="J3" t="n">
-        <v>3.432244243960203e-16</v>
+        <v>3.67765581503856e-17</v>
       </c>
       <c r="K3" t="n">
-        <v>3.234906834653645</v>
+        <v>1.873450890626205</v>
       </c>
       <c r="L3" t="n">
-        <v>2.895463205209443e-15</v>
+        <v>5.597254075407683e-09</v>
       </c>
       <c r="M3" t="n">
-        <v>3.541296611270763</v>
+        <v>0.7463548721664401</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7.581730512669123e-16</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.561721525436598</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.603096767682026e-09</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.617379447369443</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3.762770208859803e-16</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.875012044424146</v>
+      </c>
+      <c r="T3" t="n">
+        <v>8.06047049865749e-10</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.500028863982527</v>
       </c>
     </row>
     <row r="4">
@@ -587,40 +675,64 @@
         <v>11.81818181818182</v>
       </c>
       <c r="B4" t="n">
-        <v>1.574549724386805</v>
+        <v>0.9381640015956278</v>
       </c>
       <c r="C4" t="n">
-        <v>1.278514876814766e-15</v>
+        <v>5.542700408424281e-16</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9600794952624334</v>
+        <v>1.147435083432359</v>
       </c>
       <c r="E4" t="n">
-        <v>2.045231649343611e-14</v>
+        <v>1.156959662562881e-09</v>
       </c>
       <c r="F4" t="n">
-        <v>2.413294084371591e-15</v>
+        <v>6.932236360509669e-16</v>
       </c>
       <c r="G4" t="n">
-        <v>1.120525825125118</v>
+        <v>0.4511780896615313</v>
       </c>
       <c r="H4" t="n">
-        <v>2.906291459148318e-14</v>
+        <v>1.001004163648737</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9717527706210722</v>
+        <v>3.888885976392967e-14</v>
       </c>
       <c r="J4" t="n">
-        <v>6.537756753916705e-16</v>
+        <v>2.120656085941443e-16</v>
       </c>
       <c r="K4" t="n">
-        <v>2.952806915431776</v>
+        <v>1.640900224958866</v>
       </c>
       <c r="L4" t="n">
-        <v>1.765090621959792e-15</v>
+        <v>3.389925516091608e-09</v>
       </c>
       <c r="M4" t="n">
-        <v>3.238586094472076</v>
+        <v>0.4505496633151757</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.522370125581097e-16</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2.333178885634379</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.553181529782226e-09</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.401727727568931</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.203434611497794e-16</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.593711028418639</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.233290233361476e-09</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.270522584158726</v>
       </c>
     </row>
     <row r="5">
@@ -628,40 +740,64 @@
         <v>12.72727272727273</v>
       </c>
       <c r="B5" t="n">
-        <v>1.644418971251072</v>
+        <v>0.9595404341701314</v>
       </c>
       <c r="C5" t="n">
-        <v>3.215483238150001e-16</v>
+        <v>1.448572677393664e-15</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9773431488098352</v>
+        <v>1.200555554600229</v>
       </c>
       <c r="E5" t="n">
-        <v>4.97003310753047e-15</v>
+        <v>5.75530585651745e-09</v>
       </c>
       <c r="F5" t="n">
-        <v>9.496716332099744e-16</v>
+        <v>0.2724877611090609</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9179419618298514</v>
+        <v>3.560353965943884e-16</v>
       </c>
       <c r="H5" t="n">
-        <v>9.402401853585631e-15</v>
+        <v>1.001004102349791</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8110695257876753</v>
+        <v>9.5540607023151e-15</v>
       </c>
       <c r="J5" t="n">
-        <v>5.549211388888014e-16</v>
+        <v>1.060289213115412e-15</v>
       </c>
       <c r="K5" t="n">
-        <v>2.708171818309367</v>
+        <v>1.426809186975234</v>
       </c>
       <c r="L5" t="n">
-        <v>3.178777914006567e-15</v>
+        <v>0.2623750787150713</v>
       </c>
       <c r="M5" t="n">
-        <v>2.976334380790607</v>
+        <v>2.501941373176194e-08</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.790820855011541e-16</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2.134495933912621</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.253771966683949e-09</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.211659453208794</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.063365953529492e-16</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.346939596149181</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.448092450259626e-10</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.070868927455726</v>
       </c>
     </row>
     <row r="6">
@@ -669,40 +805,64 @@
         <v>13.63636363636364</v>
       </c>
       <c r="B6" t="n">
-        <v>1.710248921202328</v>
+        <v>0.9844365206174506</v>
       </c>
       <c r="C6" t="n">
-        <v>1.093755641053422e-16</v>
+        <v>4.31093948902889e-17</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9916307698038671</v>
+        <v>1.256225263397393</v>
       </c>
       <c r="E6" t="n">
-        <v>6.422750720212248e-15</v>
+        <v>5.522665704171273e-09</v>
       </c>
       <c r="F6" t="n">
-        <v>7.948652800740718e-16</v>
+        <v>0.5659693573846167</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7260745738870116</v>
+        <v>1.615766303899858e-15</v>
       </c>
       <c r="H6" t="n">
-        <v>1.473185431354603e-14</v>
+        <v>1.001004096712327</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6529780582356246</v>
+        <v>1.243736304296929e-15</v>
       </c>
       <c r="J6" t="n">
-        <v>3.334573619280607e-16</v>
+        <v>1.816372831552401e-16</v>
       </c>
       <c r="K6" t="n">
-        <v>2.493410442995739</v>
+        <v>1.225804556229504</v>
       </c>
       <c r="L6" t="n">
-        <v>5.775581895792911e-16</v>
+        <v>0.5231869501638609</v>
       </c>
       <c r="M6" t="n">
-        <v>2.74630380647962</v>
+        <v>6.140406198945233e-09</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.294727778006982e-16</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.959581675262186</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6.651180162703838e-09</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.04104318144204</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.612850558569174e-16</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.128165223425966</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.002409359967923e-10</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.894940149399287</v>
       </c>
     </row>
     <row r="7">
@@ -710,40 +870,64 @@
         <v>14.54545454545455</v>
       </c>
       <c r="B7" t="n">
-        <v>1.772314414729641</v>
+        <v>1.021350023914539</v>
       </c>
       <c r="C7" t="n">
-        <v>3.171342491667262e-16</v>
+        <v>7.548045440458986e-16</v>
       </c>
       <c r="D7" t="n">
-        <v>1.003799385363414</v>
+        <v>1.312899467598289</v>
       </c>
       <c r="E7" t="n">
-        <v>5.498197038199789e-16</v>
+        <v>1.073522230464456e-09</v>
       </c>
       <c r="F7" t="n">
-        <v>3.098583063256722e-16</v>
+        <v>0.7314309358622532</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5321085855920433</v>
+        <v>1.821148404359994e-15</v>
       </c>
       <c r="H7" t="n">
-        <v>2.4559294080183e-15</v>
+        <v>1.001004136227571</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4864201616602015</v>
+        <v>2.39568837205761e-14</v>
       </c>
       <c r="J7" t="n">
-        <v>4.3391761012592e-16</v>
+        <v>1.290270459469195e-15</v>
       </c>
       <c r="K7" t="n">
-        <v>2.302813137181892</v>
+        <v>1.034377687301733</v>
       </c>
       <c r="L7" t="n">
-        <v>6.608209137624528e-16</v>
+        <v>0.6523679745707961</v>
       </c>
       <c r="M7" t="n">
-        <v>2.542292507777168</v>
+        <v>5.443189864146371e-10</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9.523288301860171e-17</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.803849749957781</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5.247242643273219e-09</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.8842617110745378</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3.533765964956295e-16</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.932711257327359</v>
+      </c>
+      <c r="T7" t="n">
+        <v>7.657656805703989e-11</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.738108394798647</v>
       </c>
     </row>
     <row r="8">
@@ -751,40 +935,64 @@
         <v>15.45454545454546</v>
       </c>
       <c r="B8" t="n">
-        <v>1.830808967013819</v>
+        <v>1.085089545709097</v>
       </c>
       <c r="C8" t="n">
-        <v>9.338442202865415e-16</v>
+        <v>2.117421944670775e-16</v>
       </c>
       <c r="D8" t="n">
-        <v>1.014457101155591</v>
+        <v>1.36847219289627</v>
       </c>
       <c r="E8" t="n">
-        <v>6.675347674667375e-16</v>
+        <v>4.885991484513439e-10</v>
       </c>
       <c r="F8" t="n">
-        <v>8.443305856359832e-16</v>
+        <v>0.8348054997888726</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3028864454340857</v>
+        <v>7.041682428955047e-16</v>
       </c>
       <c r="H8" t="n">
-        <v>8.320550742351435e-14</v>
+        <v>1.001004213383639</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2810211823083096</v>
+        <v>1.333104277121646e-14</v>
       </c>
       <c r="J8" t="n">
-        <v>4.581558544048071e-17</v>
+        <v>2.505813625743306e-16</v>
       </c>
       <c r="K8" t="n">
-        <v>2.131995053880242</v>
+        <v>0.8500517988657743</v>
       </c>
       <c r="L8" t="n">
-        <v>4.815559806090622e-16</v>
+        <v>0.7331776581104823</v>
       </c>
       <c r="M8" t="n">
-        <v>2.359531283409728</v>
+        <v>3.982336820131161e-10</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5.025093773279407e-17</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.663772612609993</v>
+      </c>
+      <c r="P8" t="n">
+        <v>9.049515005738477e-10</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.7356600086299678</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.57409732059575e-16</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.757121114416999</v>
+      </c>
+      <c r="T8" t="n">
+        <v>8.339899363126277e-10</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.596800907293487</v>
       </c>
     </row>
     <row r="9">
@@ -792,40 +1000,64 @@
         <v>16.36363636363636</v>
       </c>
       <c r="B9" t="n">
-        <v>1.885936337536135</v>
+        <v>1.1803370333496</v>
       </c>
       <c r="C9" t="n">
-        <v>3.703024303999623e-16</v>
+        <v>1.6161716986475e-16</v>
       </c>
       <c r="D9" t="n">
-        <v>1.024054018892254</v>
+        <v>1.421251864120909</v>
       </c>
       <c r="E9" t="n">
-        <v>5.769997508290238e-16</v>
+        <v>3.00605327418529e-09</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2459317615044621</v>
+        <v>0.8895453370049787</v>
       </c>
       <c r="G9" t="n">
-        <v>2.879509435905706e-15</v>
+        <v>1.515883091198857e-16</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2312441690458504</v>
+        <v>1.001004322699744</v>
       </c>
       <c r="I9" t="n">
-        <v>1.746988815907482e-14</v>
+        <v>7.966770766947849e-16</v>
       </c>
       <c r="J9" t="n">
-        <v>2.528907202726407e-16</v>
+        <v>8.408776389200744e-16</v>
       </c>
       <c r="K9" t="n">
-        <v>1.977524300235195</v>
+        <v>0.6692405449869844</v>
       </c>
       <c r="L9" t="n">
-        <v>2.058944329873041e-15</v>
+        <v>0.7878940920469245</v>
       </c>
       <c r="M9" t="n">
-        <v>2.194280428852934</v>
+        <v>5.973183634826307e-10</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.72051105195299e-16</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.598673667493451</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.006396411690293e-09</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.5884747716837894</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7.604420474800967e-17</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.536583420140458</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.847435475769973e-09</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.468201403858796</v>
       </c>
     </row>
     <row r="10">
@@ -833,40 +1065,64 @@
         <v>17.27272727272727</v>
       </c>
       <c r="B10" t="n">
-        <v>1.937922921771481</v>
+        <v>1.29098074466909</v>
       </c>
       <c r="C10" t="n">
-        <v>3.024858077407993e-16</v>
+        <v>3.045081032035135e-16</v>
       </c>
       <c r="D10" t="n">
-        <v>1.032938375757295</v>
+        <v>1.470321018005349</v>
       </c>
       <c r="E10" t="n">
-        <v>6.275932148569541e-15</v>
+        <v>3.320071827227173e-09</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4280570993865381</v>
+        <v>0.9173272011366581</v>
       </c>
       <c r="G10" t="n">
-        <v>7.509748826788196e-16</v>
+        <v>1.046469604830485e-16</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4073206927512532</v>
+        <v>1.001004460101161</v>
       </c>
       <c r="I10" t="n">
-        <v>2.730039240241511e-14</v>
+        <v>8.167198974288124e-15</v>
       </c>
       <c r="J10" t="n">
-        <v>1.843123247424147e-16</v>
+        <v>3.009766462788349e-15</v>
       </c>
       <c r="K10" t="n">
-        <v>1.836666598528345</v>
+        <v>0.4824709441583198</v>
       </c>
       <c r="L10" t="n">
-        <v>4.270296403352274e-15</v>
+        <v>0.8268813464621957</v>
       </c>
       <c r="M10" t="n">
-        <v>2.043552561221281</v>
+        <v>1.507997168591038e-10</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4.270523067914527e-16</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.45504424467212</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.715794442574917e-09</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.4315603188377287</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6.685621519597005e-16</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.420070897474103</v>
+      </c>
+      <c r="T10" t="n">
+        <v>5.391872095084172e-10</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.350043153618635</v>
       </c>
     </row>
     <row r="11">
@@ -874,40 +1130,64 @@
         <v>18.18181818181818</v>
       </c>
       <c r="B11" t="n">
-        <v>1.987003489011773</v>
+        <v>1.403179425262848</v>
       </c>
       <c r="C11" t="n">
-        <v>1.052220627483872e-16</v>
+        <v>4.967911375284487e-16</v>
       </c>
       <c r="D11" t="n">
-        <v>1.04139299899386</v>
+        <v>1.515418952317483</v>
       </c>
       <c r="E11" t="n">
-        <v>1.733771025501136e-15</v>
+        <v>8.181637354809042e-09</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5324854764382971</v>
+        <v>0.9333299607374455</v>
       </c>
       <c r="G11" t="n">
-        <v>5.835084262913823e-16</v>
+        <v>5.589371457045576e-16</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5120993048662036</v>
+        <v>1.00100462250941</v>
       </c>
       <c r="I11" t="n">
-        <v>2.422570319597146e-14</v>
+        <v>5.669908915381817e-15</v>
       </c>
       <c r="J11" t="n">
-        <v>4.382466930671822e-16</v>
+        <v>3.49141810852353e-16</v>
       </c>
       <c r="K11" t="n">
-        <v>1.707205407390781</v>
+        <v>0.2533293892756833</v>
       </c>
       <c r="L11" t="n">
-        <v>1.26071561690863e-15</v>
+        <v>0.8557990622458954</v>
       </c>
       <c r="M11" t="n">
-        <v>1.904916941581964</v>
+        <v>3.283828057141738e-09</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.464909402198479e-16</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.312434201263051</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4.03166729983122e-09</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.2303379168948224</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6.537864253148638e-17</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.324113705271013</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.654315530293873e-10</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.240460686614161</v>
       </c>
     </row>
     <row r="12">
@@ -915,40 +1195,64 @@
         <v>19.09090909090909</v>
       </c>
       <c r="B12" t="n">
-        <v>2.033404948106785</v>
+        <v>1.510882626096733</v>
       </c>
       <c r="C12" t="n">
-        <v>1.354358094968668e-16</v>
+        <v>5.841542331727331e-16</v>
       </c>
       <c r="D12" t="n">
-        <v>1.049660263561705</v>
+        <v>1.556691946394344</v>
       </c>
       <c r="E12" t="n">
-        <v>1.755747812061249e-15</v>
+        <v>1.115620488270659e-09</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6054253761169266</v>
+        <v>0.9438454929785491</v>
       </c>
       <c r="G12" t="n">
-        <v>7.636810948100769e-16</v>
+        <v>1.992445286393275e-16</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5877723738503083</v>
+        <v>1.001004807564547</v>
       </c>
       <c r="I12" t="n">
-        <v>6.397173852108326e-16</v>
+        <v>1.93815393840796e-15</v>
       </c>
       <c r="J12" t="n">
-        <v>2.321805779249898e-16</v>
+        <v>0.2634812421324048</v>
       </c>
       <c r="K12" t="n">
-        <v>1.587311966313445</v>
+        <v>1.027896463871355e-15</v>
       </c>
       <c r="L12" t="n">
-        <v>5.202564802527949e-16</v>
+        <v>0.8779753257235275</v>
       </c>
       <c r="M12" t="n">
-        <v>1.776357609331781</v>
+        <v>6.64498221457353e-10</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.83874435629152e-16</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.203895255577612</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.2431074573237262</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.273796660975103e-09</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7.179362835981795e-16</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.212177154428821</v>
+      </c>
+      <c r="T12" t="n">
+        <v>4.486728863354729e-10</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.137879159837742</v>
       </c>
     </row>
     <row r="13">
@@ -956,40 +1260,64 @@
         <v>20</v>
       </c>
       <c r="B13" t="n">
-        <v>2.077335991264443</v>
+        <v>1.611803114828809</v>
       </c>
       <c r="C13" t="n">
-        <v>1.567627327346808e-16</v>
+        <v>6.614229755153873e-17</v>
       </c>
       <c r="D13" t="n">
-        <v>1.057960230113131</v>
+        <v>1.594489226177115</v>
       </c>
       <c r="E13" t="n">
-        <v>1.107714368369555e-14</v>
+        <v>1.558259535969338e-09</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6603169608187913</v>
+        <v>0.9514203379748487</v>
       </c>
       <c r="G13" t="n">
-        <v>7.273681427323295e-16</v>
+        <v>1.050664013882564e-16</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6464715736456881</v>
+        <v>1.001005013434735</v>
       </c>
       <c r="I13" t="n">
-        <v>3.984056911932499e-16</v>
+        <v>2.021254021012264e-16</v>
       </c>
       <c r="J13" t="n">
-        <v>1.279848137998637e-16</v>
+        <v>0.4207207061954658</v>
       </c>
       <c r="K13" t="n">
-        <v>1.475448829523507</v>
+        <v>9.059683653655425e-16</v>
       </c>
       <c r="L13" t="n">
-        <v>2.843333156466372e-15</v>
+        <v>0.8954663768460851</v>
       </c>
       <c r="M13" t="n">
-        <v>1.656167513157765</v>
+        <v>1.02094909348904e-09</v>
+      </c>
+      <c r="N13" t="n">
+        <v>7.324766624017571e-17</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.092522396746788</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.3931455624073973</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>6.883100026452025e-10</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3.303795694606197e-16</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.118028384576326</v>
+      </c>
+      <c r="T13" t="n">
+        <v>6.148297782324624e-11</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.04092700152704</v>
       </c>
     </row>
     <row r="14">
@@ -997,40 +1325,64 @@
         <v>20.90909090909091</v>
       </c>
       <c r="B14" t="n">
-        <v>2.118982946312954</v>
+        <v>1.705269343942293</v>
       </c>
       <c r="C14" t="n">
-        <v>1.426723768674347e-17</v>
+        <v>1.150934236266205e-16</v>
       </c>
       <c r="D14" t="n">
-        <v>1.066504762212554</v>
+        <v>1.629236332847639</v>
       </c>
       <c r="E14" t="n">
-        <v>1.699628794816425e-15</v>
+        <v>8.759349364532297e-10</v>
       </c>
       <c r="F14" t="n">
-        <v>0.703423930970406</v>
+        <v>0.9572189481952409</v>
       </c>
       <c r="G14" t="n">
-        <v>1.462004429373696e-15</v>
+        <v>4.530057479480439e-16</v>
       </c>
       <c r="H14" t="n">
-        <v>0.693839500081872</v>
+        <v>1.001005238680813</v>
       </c>
       <c r="I14" t="n">
-        <v>2.76927966294627e-14</v>
+        <v>6.643136215987015e-16</v>
       </c>
       <c r="J14" t="n">
-        <v>6.611792530944548e-16</v>
+        <v>0.5149322015096759</v>
       </c>
       <c r="K14" t="n">
-        <v>1.370295894665166</v>
+        <v>2.710492685480714e-18</v>
       </c>
       <c r="L14" t="n">
-        <v>3.199039996839023e-15</v>
+        <v>0.9095957296748052</v>
       </c>
       <c r="M14" t="n">
-        <v>1.542866736305694</v>
+        <v>2.359571928369567e-10</v>
+      </c>
+      <c r="N14" t="n">
+        <v>8.638631835555926e-16</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.9882458797959222</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.4864167644954788</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.900243824551386e-09</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.28439614852386e-16</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.028878062764394</v>
+      </c>
+      <c r="T14" t="n">
+        <v>8.145556863412003e-11</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.9483608565974085</v>
       </c>
     </row>
     <row r="15">
@@ -1038,40 +1390,64 @@
         <v>21.81818181818182</v>
       </c>
       <c r="B15" t="n">
-        <v>2.158509886075713</v>
+        <v>1.791340321779482</v>
       </c>
       <c r="C15" t="n">
-        <v>4.361546571363563e-18</v>
+        <v>5.168731615557238e-16</v>
       </c>
       <c r="D15" t="n">
-        <v>1.075509367490504</v>
+        <v>1.661367245065927</v>
       </c>
       <c r="E15" t="n">
-        <v>6.037040353554771e-15</v>
+        <v>1.967538309917942e-09</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7382674417749657</v>
+        <v>0.9618445788826249</v>
       </c>
       <c r="G15" t="n">
-        <v>3.478219164297886e-16</v>
+        <v>2.536744536742212e-16</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7330602920619792</v>
+        <v>1.001005482161119</v>
       </c>
       <c r="I15" t="n">
-        <v>7.799737118300882e-16</v>
+        <v>3.872049617814849e-15</v>
       </c>
       <c r="J15" t="n">
-        <v>3.773843151471926e-17</v>
+        <v>0.5818655892298434</v>
       </c>
       <c r="K15" t="n">
-        <v>1.27069116534999</v>
+        <v>2.838975509890898e-16</v>
       </c>
       <c r="L15" t="n">
-        <v>2.864524457642922e-15</v>
+        <v>0.9212468741364643</v>
       </c>
       <c r="M15" t="n">
-        <v>1.435136458490495</v>
+        <v>1.515380480768493e-09</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.343477661338585e-16</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.9437240902542111</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.5547222069129374</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.226827114649117e-09</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4.208722103421182e-17</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.889409041267342</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.002998238003646e-09</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.8589922300585698</v>
       </c>
     </row>
     <row r="16">
@@ -1079,40 +1455,64 @@
         <v>22.72727272727273</v>
       </c>
       <c r="B16" t="n">
-        <v>2.196060974371745</v>
+        <v>1.870404136856876</v>
       </c>
       <c r="C16" t="n">
-        <v>2.769112267998819e-16</v>
+        <v>1.010541149543699e-16</v>
       </c>
       <c r="D16" t="n">
-        <v>1.085203881574524</v>
+        <v>1.691292176205937</v>
       </c>
       <c r="E16" t="n">
-        <v>6.509025719013987e-15</v>
+        <v>2.011451007832833e-09</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7670444293969331</v>
+        <v>0.965643397208512</v>
       </c>
       <c r="G16" t="n">
-        <v>6.453565655154085e-16</v>
+        <v>1.480553370754098e-16</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7661337987477697</v>
+        <v>1.001005742961259</v>
       </c>
       <c r="I16" t="n">
-        <v>1.552922768548038e-14</v>
+        <v>2.822780446653684e-16</v>
       </c>
       <c r="J16" t="n">
-        <v>7.360786980699282e-16</v>
+        <v>0.6329266123280143</v>
       </c>
       <c r="K16" t="n">
-        <v>1.17558027170089</v>
+        <v>1.986637795252083e-15</v>
       </c>
       <c r="L16" t="n">
-        <v>1.409686396332961e-15</v>
+        <v>0.9310293615949696</v>
       </c>
       <c r="M16" t="n">
-        <v>1.331762308714063</v>
+        <v>6.361935145975071e-10</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.342823900986052e-16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.7943865523095563</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.6081539385469376</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>6.303893961806516e-10</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.658220614153405e-16</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.8616212577204705</v>
+      </c>
+      <c r="T16" t="n">
+        <v>7.159388788283676e-10</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.771602245940377</v>
       </c>
     </row>
     <row r="17">
@@ -1120,40 +1520,64 @@
         <v>23.63636363636364</v>
       </c>
       <c r="B17" t="n">
-        <v>2.231763609958485</v>
+        <v>1.942982722279313</v>
       </c>
       <c r="C17" t="n">
-        <v>2.779619131443628e-16</v>
+        <v>1.096530985504805e-16</v>
       </c>
       <c r="D17" t="n">
-        <v>1.095842706767589</v>
+        <v>1.71938484117123</v>
       </c>
       <c r="E17" t="n">
-        <v>2.726992592625567e-15</v>
+        <v>1.030215090875606e-09</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7912210668974595</v>
+        <v>0.9688306633980543</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381305205742079e-16</v>
+        <v>1.166386630992468e-16</v>
       </c>
       <c r="H17" t="n">
-        <v>0.7944038437683031</v>
+        <v>1.001006020343323</v>
       </c>
       <c r="I17" t="n">
-        <v>1.430145710337976e-14</v>
+        <v>2.831034207944619e-15</v>
       </c>
       <c r="J17" t="n">
-        <v>9.903034418249795e-17</v>
+        <v>0.6735464380080409</v>
       </c>
       <c r="K17" t="n">
-        <v>1.083969427303092</v>
+        <v>5.58624746610573e-16</v>
       </c>
       <c r="L17" t="n">
-        <v>3.693917562160966e-15</v>
+        <v>0.9393766392412429</v>
       </c>
       <c r="M17" t="n">
-        <v>1.23158161255519</v>
+        <v>3.952143857298796e-10</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4.228179290841447e-16</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.7816257521307959</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.6515606944334347</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.108594111694755e-09</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5.150900275306143e-16</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.7014700215747074</v>
+      </c>
+      <c r="T17" t="n">
+        <v>5.511435549576384e-10</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.6848209607751999</v>
       </c>
     </row>
     <row r="18">
@@ -1161,40 +1585,64 @@
         <v>24.54545454545455</v>
       </c>
       <c r="B18" t="n">
-        <v>2.265731533657914</v>
+        <v>2.009634717959224</v>
       </c>
       <c r="C18" t="n">
-        <v>2.748126051662295e-17</v>
+        <v>1.021409849558885e-16</v>
       </c>
       <c r="D18" t="n">
-        <v>1.107715001876938</v>
+        <v>1.745979497990216</v>
       </c>
       <c r="E18" t="n">
-        <v>9.353030243225745e-15</v>
+        <v>6.024717645121977e-10</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8118237919690949</v>
+        <v>0.9715489227457544</v>
       </c>
       <c r="G18" t="n">
-        <v>1.278716768531627e-16</v>
+        <v>5.098723216448621e-16</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8188161539742704</v>
+        <v>1.001006313707458</v>
       </c>
       <c r="I18" t="n">
-        <v>1.940895186176905e-15</v>
+        <v>8.112067392374887e-16</v>
       </c>
       <c r="J18" t="n">
-        <v>1.036540238004786e-15</v>
+        <v>0.7067943272685704</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9948759587406151</v>
+        <v>1.650929432003876e-16</v>
       </c>
       <c r="L18" t="n">
-        <v>3.66853574660854e-15</v>
+        <v>0.9466056799125269</v>
       </c>
       <c r="M18" t="n">
-        <v>1.133428690582163</v>
+        <v>1.497982473933991e-10</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.250803534388137e-15</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.6086564234992111</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.6877300153051751</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.399417958288945e-09</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5.132328952280381e-16</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.7027232634927797</v>
+      </c>
+      <c r="T18" t="n">
+        <v>9.967978783221985e-10</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.5969193440796798</v>
       </c>
     </row>
     <row r="19">
@@ -1202,40 +1650,64 @@
         <v>25.45454545454546</v>
       </c>
       <c r="B19" t="n">
-        <v>2.29806750711916</v>
+        <v>2.070907655878979</v>
       </c>
       <c r="C19" t="n">
-        <v>1.690872544455956e-16</v>
+        <v>6.885348959732193e-16</v>
       </c>
       <c r="D19" t="n">
-        <v>1.121154887068511</v>
+        <v>1.771372656831131</v>
       </c>
       <c r="E19" t="n">
-        <v>5.125483630754416e-15</v>
+        <v>5.589035470924668e-10</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8295979545552254</v>
+        <v>0.9738973644283048</v>
       </c>
       <c r="G19" t="n">
-        <v>1.097285062474254e-16</v>
+        <v>3.921439705027637e-16</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8400594008615084</v>
+        <v>1.001006622562448</v>
       </c>
       <c r="I19" t="n">
-        <v>5.804735131916322e-15</v>
+        <v>5.415946707939184e-18</v>
       </c>
       <c r="J19" t="n">
-        <v>1.517063282177912e-16</v>
+        <v>0.7345856497166671</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9072681822680089</v>
+        <v>6.715035628829067e-16</v>
       </c>
       <c r="L19" t="n">
-        <v>7.822385237228812e-15</v>
+        <v>0.9529545541955873</v>
       </c>
       <c r="M19" t="n">
-        <v>1.036070191629966</v>
+        <v>1.305276994660134e-09</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.861967583135619e-17</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.5132055139604821</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.7184385871152646</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.216161351868337e-09</v>
+      </c>
+      <c r="R19" t="n">
+        <v>7.937154917129176e-17</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.6237179552222945</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.630776031794613e-11</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.5053745305273272</v>
       </c>
     </row>
     <row r="20">
@@ -1243,40 +1715,64 @@
         <v>26.36363636363637</v>
       </c>
       <c r="B20" t="n">
-        <v>2.328865444639406</v>
+        <v>2.127315607900395</v>
       </c>
       <c r="C20" t="n">
-        <v>1.512243695537191e-16</v>
+        <v>1.692524846580115e-16</v>
       </c>
       <c r="D20" t="n">
-        <v>1.136551234953455</v>
+        <v>1.795826519236775</v>
       </c>
       <c r="E20" t="n">
-        <v>3.786884737996538e-16</v>
+        <v>1.125977661772922e-09</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8451011409575693</v>
+        <v>0.9759477881914064</v>
       </c>
       <c r="G20" t="n">
-        <v>3.478691379748169e-16</v>
+        <v>2.18212599741584e-16</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8586492740126479</v>
+        <v>1.001006946504709</v>
       </c>
       <c r="I20" t="n">
-        <v>4.907133362930089e-15</v>
+        <v>1.343618928223983e-16</v>
       </c>
       <c r="J20" t="n">
-        <v>8.997626305976057e-16</v>
+        <v>0.7581975622869064</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8199803744990021</v>
+        <v>1.419049964460133e-16</v>
       </c>
       <c r="L20" t="n">
-        <v>8.218021610558322e-16</v>
+        <v>0.9586068705681093</v>
       </c>
       <c r="M20" t="n">
-        <v>0.9381164697937708</v>
+        <v>6.471672001472355e-11</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.549805238577987e-15</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.4104931507685628</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.7448979152834523</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5.892247959516917e-10</v>
+      </c>
+      <c r="R20" t="n">
+        <v>7.565012293923359e-16</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.5430295391462701</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.486407515378535e-11</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.4057325792577625</v>
       </c>
     </row>
     <row r="21">
@@ -1284,40 +1780,64 @@
         <v>27.27272727272727</v>
       </c>
       <c r="B21" t="n">
-        <v>2.358212023726187</v>
+        <v>2.179330112865629</v>
       </c>
       <c r="C21" t="n">
-        <v>2.492070994879603e-16</v>
+        <v>5.86583440105123e-16</v>
       </c>
       <c r="D21" t="n">
-        <v>1.154355733638923</v>
+        <v>1.819572921415141</v>
       </c>
       <c r="E21" t="n">
-        <v>3.008919277148612e-15</v>
+        <v>6.408349017419637e-10</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8587613761242017</v>
+        <v>0.977753851170783</v>
       </c>
       <c r="G21" t="n">
-        <v>3.430989714545622e-16</v>
+        <v>1.126180109558749e-16</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8749821659933981</v>
+        <v>1.001007285200001</v>
       </c>
       <c r="I21" t="n">
-        <v>6.34794619868905e-15</v>
+        <v>1.109397133465902e-15</v>
       </c>
       <c r="J21" t="n">
-        <v>3.659374737415212e-16</v>
+        <v>0.7785237008387913</v>
       </c>
       <c r="K21" t="n">
-        <v>0.7315736463150015</v>
+        <v>5.650298336000851e-18</v>
       </c>
       <c r="L21" t="n">
-        <v>2.052022184977761e-15</v>
+        <v>0.9637082035074573</v>
       </c>
       <c r="M21" t="n">
-        <v>0.8378794602261527</v>
+        <v>2.08929639526544e-11</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4.859669760987305e-16</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.2897772594328287</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.7679747222400172</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.532658527396704e-09</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3.93717900224326e-16</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.4582516075794613</v>
+      </c>
+      <c r="T21" t="n">
+        <v>4.098298262040304e-09</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.2873889580134773</v>
       </c>
     </row>
     <row r="22">
@@ -1325,40 +1845,64 @@
         <v>28.18181818181819</v>
       </c>
       <c r="B22" t="n">
-        <v>2.38618786143353</v>
+        <v>2.22737799531203</v>
       </c>
       <c r="C22" t="n">
-        <v>2.738879761561466e-17</v>
+        <v>5.061806830533016e-17</v>
       </c>
       <c r="D22" t="n">
-        <v>1.175086292095207</v>
+        <v>1.842816839667524</v>
       </c>
       <c r="E22" t="n">
-        <v>1.432731043500439e-15</v>
+        <v>6.743377783807199e-10</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8709152192144516</v>
+        <v>0.9793567146098499</v>
       </c>
       <c r="G22" t="n">
-        <v>3.278640904394536e-16</v>
+        <v>2.907402385847645e-17</v>
       </c>
       <c r="H22" t="n">
-        <v>0.8893712689543192</v>
+        <v>1.001007638372354</v>
       </c>
       <c r="I22" t="n">
-        <v>1.794947568638323e-14</v>
+        <v>1.131877801642294e-15</v>
       </c>
       <c r="J22" t="n">
-        <v>1.136510915287766e-15</v>
+        <v>0.7962129591825556</v>
       </c>
       <c r="K22" t="n">
-        <v>0.6400732362056374</v>
+        <v>2.607553274682681e-16</v>
       </c>
       <c r="L22" t="n">
-        <v>9.675280340440291e-15</v>
+        <v>0.9683775503044586</v>
       </c>
       <c r="M22" t="n">
-        <v>0.7331040182813168</v>
+        <v>6.84011429449492e-11</v>
+      </c>
+      <c r="N22" t="n">
+        <v>5.658591251864201e-17</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.09086358466170298</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.7883119007855748</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5.12519686409454e-10</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.211296487080495e-18</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.3649514486090715</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.083763799608731e-08</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.09039624432902531</v>
       </c>
     </row>
     <row r="23">
@@ -1366,40 +1910,64 @@
         <v>29.09090909090909</v>
       </c>
       <c r="B23" t="n">
-        <v>2.412868357751042</v>
+        <v>2.271842667667436</v>
       </c>
       <c r="C23" t="n">
-        <v>2.083570927230061e-16</v>
+        <v>1.306271109421724e-16</v>
       </c>
       <c r="D23" t="n">
-        <v>1.199320223790413</v>
+        <v>1.86573946166884</v>
       </c>
       <c r="E23" t="n">
-        <v>1.490143633441875e-15</v>
+        <v>9.005189810942599e-10</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8818338282986444</v>
+        <v>0.9807886513325343</v>
       </c>
       <c r="G23" t="n">
-        <v>4.73142420329402e-16</v>
+        <v>5.840238230677493e-17</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9020715487403909</v>
+        <v>1.001008005790788</v>
       </c>
       <c r="I23" t="n">
-        <v>3.709326340874888e-15</v>
+        <v>2.062953284796246e-16</v>
       </c>
       <c r="J23" t="n">
-        <v>1.863500169271211e-15</v>
+        <v>0.8117507212500223</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5423857968254339</v>
+        <v>1.120827880511715e-16</v>
       </c>
       <c r="L23" t="n">
-        <v>1.451434745704302e-15</v>
+        <v>0.9727156656381822</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6203596782957763</v>
+        <v>2.962046608084695e-10</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.2447298290733325</v>
+      </c>
+      <c r="O23" t="n">
+        <v>3.568538872866803e-15</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.8064000713225654</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>7.952443775690423e-10</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.256648112569462e-15</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.2519363370022046</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.2441771124200089</v>
+      </c>
+      <c r="U23" t="n">
+        <v>3.293755114381086e-09</v>
       </c>
     </row>
     <row r="24">
@@ -1407,40 +1975,64 @@
         <v>30</v>
       </c>
       <c r="B24" t="n">
-        <v>2.4383242984378</v>
+        <v>2.313067080077191</v>
       </c>
       <c r="C24" t="n">
-        <v>1.339328636636586e-16</v>
+        <v>2.361823745745182e-17</v>
       </c>
       <c r="D24" t="n">
-        <v>1.227668298405777</v>
+        <v>1.888500390100173</v>
       </c>
       <c r="E24" t="n">
-        <v>8.526429948582622e-15</v>
+        <v>1.895465828088648e-10</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8917416520439428</v>
+        <v>0.9820754419073694</v>
       </c>
       <c r="G24" t="n">
-        <v>7.559801869734372e-16</v>
+        <v>4.966825658343215e-16</v>
       </c>
       <c r="H24" t="n">
-        <v>0.913297006458557</v>
+        <v>1.001008387263694</v>
       </c>
       <c r="I24" t="n">
-        <v>3.527490887542951e-15</v>
+        <v>2.843932132741646e-15</v>
       </c>
       <c r="J24" t="n">
-        <v>9.327477604845667e-16</v>
+        <v>0.825509109564518</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4326886734783957</v>
+        <v>5.185202295387507e-16</v>
       </c>
       <c r="L24" t="n">
-        <v>2.197645527033936e-15</v>
+        <v>0.9768114927913856</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4933103998793467</v>
+        <v>6.646988271911327e-10</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.002074381491143362</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.865969942594522e-13</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.8226224001815793</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5.323969937564083e-10</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.3485928612655941</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4.036972975795668e-16</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.3487498783526754</v>
+      </c>
+      <c r="U24" t="n">
+        <v>3.785664448778477e-09</v>
       </c>
     </row>
     <row r="25">
@@ -1448,40 +2040,64 @@
         <v>30.90909090909091</v>
       </c>
       <c r="B25" t="n">
-        <v>2.462622292019581</v>
+        <v>2.351357328846376</v>
       </c>
       <c r="C25" t="n">
-        <v>5.047192564113252e-17</v>
+        <v>9.778139817733121e-17</v>
       </c>
       <c r="D25" t="n">
-        <v>1.260718679657934</v>
+        <v>1.911239153763709</v>
       </c>
       <c r="E25" t="n">
-        <v>9.373089670987948e-15</v>
+        <v>3.350452084351702e-09</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9008306455627814</v>
+        <v>0.9832380217064629</v>
       </c>
       <c r="G25" t="n">
-        <v>2.928575577185432e-16</v>
+        <v>1.241250021801747e-16</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9232322283242357</v>
+        <v>1.001008782630912</v>
       </c>
       <c r="I25" t="n">
-        <v>3.40277331735015e-15</v>
+        <v>5.328266646508074e-15</v>
       </c>
       <c r="J25" t="n">
-        <v>2.232392811113256e-15</v>
+        <v>0.8377794871997064</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2958697941789136</v>
+        <v>2.009180923504313e-16</v>
       </c>
       <c r="L25" t="n">
-        <v>1.38302453282152e-15</v>
+        <v>0.9807474950113483</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3354923504363608</v>
+        <v>1.904225467796559e-09</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.4212953854056536</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2.651102053082708e-16</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.8372838799164875</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5.21770793791685e-10</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.2407539736934337</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.159229818218523e-15</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.4225658912208521</v>
+      </c>
+      <c r="U25" t="n">
+        <v>9.32009317857461e-10</v>
       </c>
     </row>
     <row r="26">
@@ -1489,40 +2105,64 @@
         <v>31.81818181818182</v>
       </c>
       <c r="B26" t="n">
-        <v>2.485825096879895</v>
+        <v>2.386986397681549</v>
       </c>
       <c r="C26" t="n">
-        <v>1.456943059035708e-19</v>
+        <v>4.115458768927151e-17</v>
       </c>
       <c r="D26" t="n">
-        <v>1.298943585686126</v>
+        <v>1.934076003375146</v>
       </c>
       <c r="E26" t="n">
-        <v>4.038017323956713e-15</v>
+        <v>1.350094178262885e-10</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9092720112030347</v>
+        <v>0.9842936490010316</v>
       </c>
       <c r="G26" t="n">
-        <v>4.963131768163957e-16</v>
+        <v>8.965065265393403e-17</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9320396703218883</v>
+        <v>1.00100919175881</v>
       </c>
       <c r="I26" t="n">
-        <v>3.00050770037618e-15</v>
+        <v>3.557748925888047e-16</v>
       </c>
       <c r="J26" t="n">
-        <v>0.07730603698554821</v>
+        <v>0.8487942905629349</v>
       </c>
       <c r="K26" t="n">
-        <v>6.159545568422956e-16</v>
+        <v>3.633440476160741e-16</v>
       </c>
       <c r="L26" t="n">
-        <v>0.08695600482143277</v>
+        <v>0.984604540263125</v>
       </c>
       <c r="M26" t="n">
-        <v>3.084540416979537e-14</v>
+        <v>2.265765290886201e-10</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.478069645724388</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2.713868486927198e-16</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.8506310718641527</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4.433785577944862e-10</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.3332028413714928</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4.478071535724453e-16</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.4806822232649647</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.073882814419414e-09</v>
       </c>
     </row>
     <row r="27">
@@ -1530,40 +2170,64 @@
         <v>32.72727272727273</v>
       </c>
       <c r="B27" t="n">
-        <v>2.507991877954167</v>
+        <v>2.420197761765198</v>
       </c>
       <c r="C27" t="n">
-        <v>9.785511466189272e-17</v>
+        <v>9.383432725403476e-17</v>
       </c>
       <c r="D27" t="n">
-        <v>1.342576739130311</v>
+        <v>1.957112008569367</v>
       </c>
       <c r="E27" t="n">
-        <v>1.049249737477751e-15</v>
+        <v>1.869899477757877e-10</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9172270931987275</v>
+        <v>0.9852567589588352</v>
       </c>
       <c r="G27" t="n">
-        <v>1.87887807624913e-16</v>
+        <v>3.786773865848249e-16</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9398639319385502</v>
+        <v>1.001009614536496</v>
       </c>
       <c r="I27" t="n">
-        <v>1.645240484985466e-17</v>
+        <v>1.395141665947849e-14</v>
       </c>
       <c r="J27" t="n">
-        <v>0.3071080506184851</v>
+        <v>0.8587422012358646</v>
       </c>
       <c r="K27" t="n">
-        <v>1.626862668865417e-15</v>
+        <v>1.261447578242793e-16</v>
       </c>
       <c r="L27" t="n">
-        <v>0.3416998745200479</v>
+        <v>0.9884668164231825</v>
       </c>
       <c r="M27" t="n">
-        <v>1.733197383632957e-14</v>
+        <v>4.25437948254825e-10</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.5247213440698223</v>
+      </c>
+      <c r="O27" t="n">
+        <v>9.448108438997247e-16</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.8628656102637262</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3.406500224667654e-10</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.3996569804290276</v>
+      </c>
+      <c r="S27" t="n">
+        <v>8.467160968857386e-16</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.5288248092578388</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.28107272517376e-09</v>
       </c>
     </row>
     <row r="28">
@@ -1571,40 +2235,64 @@
         <v>33.63636363636364</v>
       </c>
       <c r="B28" t="n">
-        <v>2.529178419600016</v>
+        <v>2.451208726457848</v>
       </c>
       <c r="C28" t="n">
-        <v>5.152083463800339e-17</v>
+        <v>5.821761994840613e-16</v>
       </c>
       <c r="D28" t="n">
-        <v>1.391495238341481</v>
+        <v>1.980428746955714</v>
       </c>
       <c r="E28" t="n">
-        <v>3.282889357001149e-15</v>
+        <v>8.299458477771668e-11</v>
       </c>
       <c r="F28" t="n">
-        <v>0.924859096400692</v>
+        <v>0.9861396088415787</v>
       </c>
       <c r="G28" t="n">
-        <v>3.215972101041611e-16</v>
+        <v>2.578380541347916e-17</v>
       </c>
       <c r="H28" t="n">
-        <v>0.9468341333663151</v>
+        <v>1.001010050871708</v>
       </c>
       <c r="I28" t="n">
-        <v>2.542710975652509e-15</v>
+        <v>2.569745308036877e-15</v>
       </c>
       <c r="J28" t="n">
-        <v>0.4223174175990331</v>
+        <v>0.8677790456185712</v>
       </c>
       <c r="K28" t="n">
-        <v>1.207256902972648e-16</v>
+        <v>1.98784776528286e-16</v>
       </c>
       <c r="L28" t="n">
-        <v>0.4634578162755228</v>
+        <v>0.9924273208629797</v>
       </c>
       <c r="M28" t="n">
-        <v>1.430579027837589e-16</v>
+        <v>1.071151404880781e-09</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.5642558934651934</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.981329512142219e-16</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.8741534059923092</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>6.745489934040195e-10</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.4522522651064149</v>
+      </c>
+      <c r="S28" t="n">
+        <v>9.714638480513051e-17</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.5699541037090666</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.119406775985245e-10</v>
       </c>
     </row>
     <row r="29">
@@ -1612,40 +2300,64 @@
         <v>34.54545454545455</v>
       </c>
       <c r="B29" t="n">
-        <v>2.549437311716023</v>
+        <v>2.48021345049695</v>
       </c>
       <c r="C29" t="n">
-        <v>2.254990563998139e-16</v>
+        <v>3.835762592585516e-16</v>
       </c>
       <c r="D29" t="n">
-        <v>1.445158820399804</v>
+        <v>2.00408755687726</v>
       </c>
       <c r="E29" t="n">
-        <v>4.759950803697962e-15</v>
+        <v>9.56833401607862e-10</v>
       </c>
       <c r="F29" t="n">
-        <v>0.932347799105919</v>
+        <v>0.9869527856514605</v>
       </c>
       <c r="G29" t="n">
-        <v>9.087070098726522e-17</v>
+        <v>1.571294932865168e-16</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9530652935495719</v>
+        <v>0.9965944138370556</v>
       </c>
       <c r="I29" t="n">
-        <v>4.259265032068484e-16</v>
+        <v>5.198931862283905e-10</v>
       </c>
       <c r="J29" t="n">
-        <v>0.5087657298556449</v>
+        <v>0.8760359219829741</v>
       </c>
       <c r="K29" t="n">
-        <v>3.419787460496053e-16</v>
+        <v>4.206102750038132e-16</v>
       </c>
       <c r="L29" t="n">
-        <v>0.5492265224956274</v>
+        <v>1.00101050069024</v>
       </c>
       <c r="M29" t="n">
-        <v>2.465497646173698e-16</v>
+        <v>2.868842527771667e-14</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.5984909662667012</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.537871086342758e-16</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.8846306327916127</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3.509013641854937e-10</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.495830548342246</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5.416866001989386e-17</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.6058578126061313</v>
+      </c>
+      <c r="U29" t="n">
+        <v>7.099703518252075e-10</v>
       </c>
     </row>
     <row r="30">
@@ -1653,40 +2365,64 @@
         <v>35.45454545454546</v>
       </c>
       <c r="B30" t="n">
-        <v>2.5688181195596</v>
+        <v>2.507385645754204</v>
       </c>
       <c r="C30" t="n">
-        <v>2.130096777739272e-16</v>
+        <v>2.664439355609355e-16</v>
       </c>
       <c r="D30" t="n">
-        <v>1.502647885947709</v>
+        <v>2.028128737694121</v>
       </c>
       <c r="E30" t="n">
-        <v>3.454011912605296e-15</v>
+        <v>1.046970667772093e-09</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9399105849760048</v>
+        <v>0.9877056289777514</v>
       </c>
       <c r="G30" t="n">
-        <v>3.626196110655849e-16</v>
+        <v>1.201755142942328e-16</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9586593249505005</v>
+        <v>0.894407084869947</v>
       </c>
       <c r="I30" t="n">
-        <v>1.187556575926445e-16</v>
+        <v>1.288674634291797e-10</v>
       </c>
       <c r="J30" t="n">
-        <v>0.5800049237273737</v>
+        <v>0.8836255614917456</v>
       </c>
       <c r="K30" t="n">
-        <v>2.333526189237013e-15</v>
+        <v>2.385074194890286e-16</v>
       </c>
       <c r="L30" t="n">
-        <v>0.6145675757001998</v>
+        <v>1.001010963558319</v>
       </c>
       <c r="M30" t="n">
-        <v>5.560991541853581e-15</v>
+        <v>5.859287878104273e-13</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.6286404326778716</v>
+      </c>
+      <c r="O30" t="n">
+        <v>4.53100339611973e-16</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.001099915430701</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>8.972202366831689e-10</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.5329414071835012</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2.531338656049407e-16</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.6377242359351252</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.679895322306312e-10</v>
       </c>
     </row>
     <row r="31">
@@ -1694,40 +2430,64 @@
         <v>36.36363636363637</v>
       </c>
       <c r="B31" t="n">
-        <v>2.587367543306053</v>
+        <v>2.532880967475277</v>
       </c>
       <c r="C31" t="n">
-        <v>2.101476003974596e-18</v>
+        <v>3.201962947985016e-16</v>
       </c>
       <c r="D31" t="n">
-        <v>1.562795943783103</v>
+        <v>2.052570839615699</v>
       </c>
       <c r="E31" t="n">
-        <v>3.167097999023256e-15</v>
+        <v>6.023672908087387e-10</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9478352509969946</v>
+        <v>0.9884066145333851</v>
       </c>
       <c r="G31" t="n">
-        <v>5.688600644352902e-17</v>
+        <v>3.936850257506474e-16</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9637059867692532</v>
+        <v>1.006109073760668</v>
       </c>
       <c r="I31" t="n">
-        <v>1.008904885336329e-15</v>
+        <v>4.926768019213002e-10</v>
       </c>
       <c r="J31" t="n">
-        <v>0.6414599063984052</v>
+        <v>0.8906476758480427</v>
       </c>
       <c r="K31" t="n">
-        <v>4.166267843643755e-17</v>
+        <v>2.5912414021957e-16</v>
       </c>
       <c r="L31" t="n">
-        <v>0.6660904033312386</v>
+        <v>1.001011440510089</v>
       </c>
       <c r="M31" t="n">
-        <v>4.114804447221432e-16</v>
+        <v>1.83631920302531e-14</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.6555771967942808</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.76742216183097e-16</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.9035673030627591</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>6.873537983509972e-10</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.5651351241318223</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4.604248756476813e-16</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.6663963930511042</v>
+      </c>
+      <c r="U31" t="n">
+        <v>4.338421021080289e-12</v>
       </c>
     </row>
     <row r="32">
@@ -1735,40 +2495,64 @@
         <v>37.27272727272727</v>
       </c>
       <c r="B32" t="n">
-        <v>2.605129570582705</v>
+        <v>2.556839119303326</v>
       </c>
       <c r="C32" t="n">
-        <v>1.59686641880083e-17</v>
+        <v>8.111369781572898e-17</v>
       </c>
       <c r="D32" t="n">
-        <v>1.624365441992793</v>
+        <v>2.077410435684049</v>
       </c>
       <c r="E32" t="n">
-        <v>4.09691476351178e-15</v>
+        <v>1.845852594142468e-09</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9565332175819543</v>
+        <v>0.9890637477638721</v>
       </c>
       <c r="G32" t="n">
-        <v>5.734364581626578e-16</v>
+        <v>1.144506194800147e-16</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9682839299938689</v>
+        <v>1.011832148424033</v>
       </c>
       <c r="I32" t="n">
-        <v>8.721732050628915e-16</v>
+        <v>2.505831676817944e-10</v>
       </c>
       <c r="J32" t="n">
-        <v>0.6958275028058279</v>
+        <v>0.8971939682970885</v>
       </c>
       <c r="K32" t="n">
-        <v>6.966357479712548e-17</v>
+        <v>1.106019250893468e-16</v>
       </c>
       <c r="L32" t="n">
-        <v>0.707553501233709</v>
+        <v>1.001011930440919</v>
       </c>
       <c r="M32" t="n">
-        <v>2.027159695819733e-15</v>
+        <v>6.895286073030682e-15</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.6799711535284448</v>
+      </c>
+      <c r="O32" t="n">
+        <v>5.219702026570424e-17</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.9121698874929512</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.183448813678696e-11</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.5934424008107594</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2.208895864282285e-16</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.6924997900599397</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.462763203405655e-10</v>
       </c>
     </row>
     <row r="33">
@@ -1776,40 +2560,64 @@
         <v>38.18181818181819</v>
       </c>
       <c r="B33" t="n">
-        <v>2.622145623507036</v>
+        <v>2.579385701334135</v>
       </c>
       <c r="C33" t="n">
-        <v>2.910498921251109e-17</v>
+        <v>1.094760778368998e-16</v>
       </c>
       <c r="D33" t="n">
-        <v>1.686204593916467</v>
+        <v>2.102622478724035</v>
       </c>
       <c r="E33" t="n">
-        <v>3.857092964387263e-15</v>
+        <v>1.713573583901103e-09</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9666235638625138</v>
+        <v>0.9896850371808367</v>
       </c>
       <c r="G33" t="n">
-        <v>2.593420698523095e-16</v>
+        <v>2.908228538711752e-16</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9724618427694395</v>
+        <v>1.01853604562536</v>
       </c>
       <c r="I33" t="n">
-        <v>3.006357695236788e-17</v>
+        <v>7.70365103628672e-10</v>
       </c>
       <c r="J33" t="n">
-        <v>0.744438502855668</v>
+        <v>0.9033535993064367</v>
       </c>
       <c r="K33" t="n">
-        <v>2.280442589566235e-16</v>
+        <v>3.914826480390029e-17</v>
       </c>
       <c r="L33" t="n">
-        <v>0.7414309284234291</v>
+        <v>1.001012433664732</v>
       </c>
       <c r="M33" t="n">
-        <v>8.801768446954804e-15</v>
+        <v>1.28180449761251e-14</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.6185915278751161</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.031648014513893e-15</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.9202459480609881</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3.885632669544812e-10</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.7023725117948736</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.073564541238351e-15</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.7165110863731264</v>
+      </c>
+      <c r="U33" t="n">
+        <v>4.304657678544181e-11</v>
       </c>
     </row>
     <row r="34">
@@ -1817,40 +2625,64 @@
         <v>39.09090909090909</v>
       </c>
       <c r="B34" t="n">
-        <v>2.638454700775763</v>
+        <v>2.600633829882182</v>
       </c>
       <c r="C34" t="n">
-        <v>4.229671224485982e-16</v>
+        <v>1.088210655986883e-17</v>
       </c>
       <c r="D34" t="n">
-        <v>1.747347338688403</v>
+        <v>2.128161644113006</v>
       </c>
       <c r="E34" t="n">
-        <v>3.673926088925119e-16</v>
+        <v>1.370915669599663e-09</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9790450907874771</v>
+        <v>0.9902791697457761</v>
       </c>
       <c r="G34" t="n">
-        <v>9.928246523821465e-17</v>
+        <v>3.417842748152095e-16</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9762996493820136</v>
+        <v>1.026551824541543</v>
       </c>
       <c r="I34" t="n">
-        <v>6.559106551992862e-17</v>
+        <v>1.176141396779534e-11</v>
       </c>
       <c r="J34" t="n">
-        <v>0.7876822731019498</v>
+        <v>0.9092203169810891</v>
       </c>
       <c r="K34" t="n">
-        <v>4.653078064912469e-16</v>
+        <v>2.262300789696199e-16</v>
       </c>
       <c r="L34" t="n">
-        <v>0.7694757243999674</v>
+        <v>1.001012950159418</v>
       </c>
       <c r="M34" t="n">
-        <v>1.733800377072257e-15</v>
+        <v>6.737640910453467e-15</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.723271330731777</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2.032984345902037e-16</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.9277986062035185</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.497086268763913e-10</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.6411203318311591</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.391985215731173e-16</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.7387948377330579</v>
+      </c>
+      <c r="U34" t="n">
+        <v>8.067602729765127e-10</v>
       </c>
     </row>
     <row r="35">
@@ -1858,40 +2690,64 @@
         <v>40</v>
       </c>
       <c r="B35" t="n">
-        <v>2.654093514855838</v>
+        <v>2.620685556255271</v>
       </c>
       <c r="C35" t="n">
-        <v>1.840034370345675e-16</v>
+        <v>1.024512456179205e-16</v>
       </c>
       <c r="D35" t="n">
-        <v>1.807051982188393</v>
+        <v>2.153964493766784</v>
       </c>
       <c r="E35" t="n">
-        <v>1.844810386589535e-15</v>
+        <v>1.467256894301786e-11</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9951212241930818</v>
+        <v>0.9908566398527999</v>
       </c>
       <c r="G35" t="n">
-        <v>6.015728531319421e-16</v>
+        <v>1.180741255604786e-16</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9798497053407094</v>
+        <v>1.036270337670179</v>
       </c>
       <c r="I35" t="n">
-        <v>2.123836105700548e-15</v>
+        <v>5.621831960772401e-10</v>
       </c>
       <c r="J35" t="n">
-        <v>0.8251793488764438</v>
+        <v>0.9149035134589257</v>
       </c>
       <c r="K35" t="n">
-        <v>5.272752659748769e-17</v>
+        <v>3.195252142233087e-16</v>
       </c>
       <c r="L35" t="n">
-        <v>0.7929755422896044</v>
+        <v>1.001013479908285</v>
       </c>
       <c r="M35" t="n">
-        <v>4.700817004112013e-15</v>
+        <v>4.807299757797168e-15</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.7431505197030418</v>
+      </c>
+      <c r="O35" t="n">
+        <v>2.767824443482442e-17</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.934806491451351</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3.711881817834944e-10</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.6614394689846378</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3.849201496223037e-16</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.7596205556449739</v>
+      </c>
+      <c r="U35" t="n">
+        <v>4.898868302985421e-10</v>
       </c>
     </row>
     <row r="36">
@@ -1899,40 +2755,64 @@
         <v>40.90909090909091</v>
       </c>
       <c r="B36" t="n">
-        <v>2.669096624074054</v>
+        <v>2.639633109553793</v>
       </c>
       <c r="C36" t="n">
-        <v>1.316784345211823e-16</v>
+        <v>1.660281642814255e-16</v>
       </c>
       <c r="D36" t="n">
-        <v>1.864794671968539</v>
+        <v>2.179952647689839</v>
       </c>
       <c r="E36" t="n">
-        <v>4.549763117763514e-15</v>
+        <v>3.691183726551471e-10</v>
       </c>
       <c r="F36" t="n">
-        <v>1.016332201452535</v>
+        <v>0.9914319186042998</v>
       </c>
       <c r="G36" t="n">
-        <v>6.082678919966031e-16</v>
+        <v>5.171039616307647e-17</v>
       </c>
       <c r="H36" t="n">
-        <v>0.983157941881547</v>
+        <v>1.048115106866124</v>
       </c>
       <c r="I36" t="n">
-        <v>3.576288401925696e-16</v>
+        <v>4.389182280634708e-10</v>
       </c>
       <c r="J36" t="n">
-        <v>0.8561260425268166</v>
+        <v>0.9205480391448333</v>
       </c>
       <c r="K36" t="n">
-        <v>6.413191864529867e-16</v>
+        <v>3.969377383951177e-16</v>
       </c>
       <c r="L36" t="n">
-        <v>0.8128938167500989</v>
+        <v>1.001014022900416</v>
       </c>
       <c r="M36" t="n">
-        <v>1.051771567169614e-14</v>
+        <v>4.44697536417008e-15</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.7625453828962397</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.658556798788818e-16</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.9412339152350563</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5.185451492755512e-11</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.679870785120141</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.064981750097022e-16</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.7791672009017162</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.348395420394241e-09</v>
       </c>
     </row>
     <row r="37">
@@ -1940,40 +2820,64 @@
         <v>41.81818181818183</v>
       </c>
       <c r="B37" t="n">
-        <v>2.683496559362629</v>
+        <v>2.657559985955579</v>
       </c>
       <c r="C37" t="n">
-        <v>5.06764197324627e-17</v>
+        <v>9.705611374710009e-17</v>
       </c>
       <c r="D37" t="n">
-        <v>1.920238450311713</v>
+        <v>2.206036635884616</v>
       </c>
       <c r="E37" t="n">
-        <v>9.515829619112781e-16</v>
+        <v>1.107645519298639e-10</v>
       </c>
       <c r="F37" t="n">
-        <v>1.043573308297354</v>
+        <v>0.9920282158080302</v>
       </c>
       <c r="G37" t="n">
-        <v>2.982325312810878e-17</v>
+        <v>1.882181300478499e-16</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9862649307244014</v>
+        <v>1.062482794276256</v>
       </c>
       <c r="I37" t="n">
-        <v>2.042649031066557e-15</v>
+        <v>7.813578073123865e-10</v>
       </c>
       <c r="J37" t="n">
-        <v>0.8800988860754499</v>
+        <v>0.9263741767189049</v>
       </c>
       <c r="K37" t="n">
-        <v>6.884551716704042e-16</v>
+        <v>2.709359187577751e-16</v>
       </c>
       <c r="L37" t="n">
-        <v>0.8299596692242195</v>
+        <v>1.001014579130107</v>
       </c>
       <c r="M37" t="n">
-        <v>1.484247417365085e-15</v>
+        <v>2.315780321559147e-15</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.7821204714124373</v>
+      </c>
+      <c r="O37" t="n">
+        <v>3.415644675754378e-16</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.9470472375158636</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.8473484463062e-10</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.6966718581485944</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2.593651380817759e-17</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.7975223019259625</v>
+      </c>
+      <c r="U37" t="n">
+        <v>4.088493514113664e-10</v>
       </c>
     </row>
     <row r="38">
@@ -1981,40 +2885,64 @@
         <v>42.72727272727273</v>
       </c>
       <c r="B38" t="n">
-        <v>2.697323945426352</v>
+        <v>2.674541904338414</v>
       </c>
       <c r="C38" t="n">
-        <v>1.833393085152057e-17</v>
+        <v>6.736852305261911e-17</v>
       </c>
       <c r="D38" t="n">
-        <v>1.973194133453491</v>
+        <v>2.232120169798005</v>
       </c>
       <c r="E38" t="n">
-        <v>2.398376469743014e-15</v>
+        <v>2.567710404812486e-10</v>
       </c>
       <c r="F38" t="n">
-        <v>1.076476960956537</v>
+        <v>0.9926896191842104</v>
       </c>
       <c r="G38" t="n">
-        <v>1.384027261011957e-16</v>
+        <v>2.641888868779281e-16</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9892068563994738</v>
+        <v>1.079652024815447</v>
       </c>
       <c r="I38" t="n">
-        <v>4.41415097473551e-15</v>
+        <v>1.462632932556022e-09</v>
       </c>
       <c r="J38" t="n">
-        <v>0.8977709636353763</v>
+        <v>0.9327669130870385</v>
       </c>
       <c r="K38" t="n">
-        <v>5.341144377050887e-16</v>
+        <v>1.852038986602312e-16</v>
       </c>
       <c r="L38" t="n">
-        <v>0.8447299596131671</v>
+        <v>1.001015148596693</v>
       </c>
       <c r="M38" t="n">
-        <v>5.130620803438662e-15</v>
+        <v>2.150641570180757e-15</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.8027573780617735</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.292306077136427e-17</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.9522318467346296</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5.666612718721607e-10</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.7120523981761033</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5.275595150352833e-16</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.8146860199645011</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.9762256616569e-09</v>
       </c>
     </row>
     <row r="39">
@@ -2022,40 +2950,64 @@
         <v>43.63636363636363</v>
       </c>
       <c r="B39" t="n">
-        <v>2.710607616166317</v>
+        <v>2.690647645639037</v>
       </c>
       <c r="C39" t="n">
-        <v>8.238263373271402e-19</v>
+        <v>8.833713527697392e-17</v>
       </c>
       <c r="D39" t="n">
-        <v>2.023582632406874</v>
+        <v>2.258104481178064</v>
       </c>
       <c r="E39" t="n">
-        <v>3.747545403964493e-15</v>
+        <v>7.345176840328855e-10</v>
       </c>
       <c r="F39" t="n">
-        <v>1.11372746049358</v>
+        <v>0.9935187285216492</v>
       </c>
       <c r="G39" t="n">
-        <v>3.696257746575971e-16</v>
+        <v>1.318404379071022e-16</v>
       </c>
       <c r="H39" t="n">
-        <v>0.9920163960626059</v>
+        <v>1.099681968308369</v>
       </c>
       <c r="I39" t="n">
-        <v>1.494854167857447e-15</v>
+        <v>1.320712067282608e-09</v>
       </c>
       <c r="J39" t="n">
-        <v>0.9106263414115902</v>
+        <v>0.9404914388498707</v>
       </c>
       <c r="K39" t="n">
-        <v>7.502868697724694e-16</v>
+        <v>2.76201888383665e-16</v>
       </c>
       <c r="L39" t="n">
-        <v>0.8576337225313887</v>
+        <v>1.001015731303318</v>
       </c>
       <c r="M39" t="n">
-        <v>1.474806982199724e-15</v>
+        <v>2.999845266278779e-15</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.8255469021502626</v>
+      </c>
+      <c r="O39" t="n">
+        <v>3.38066904868334e-16</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.9568019563426156</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5.846582796291603e-11</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.7261856039109311</v>
+      </c>
+      <c r="S39" t="n">
+        <v>7.52114033160931e-17</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.830591887655142</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2.432583162506338e-10</v>
       </c>
     </row>
     <row r="40">
@@ -2063,40 +3015,64 @@
         <v>44.54545454545455</v>
       </c>
       <c r="B40" t="n">
-        <v>2.723374724274562</v>
+        <v>2.705939791104301</v>
       </c>
       <c r="C40" t="n">
-        <v>1.886513054090581e-16</v>
+        <v>1.023820904200198e-18</v>
       </c>
       <c r="D40" t="n">
-        <v>2.071403024242319</v>
+        <v>2.283892388217844</v>
       </c>
       <c r="E40" t="n">
-        <v>1.924916533775398e-15</v>
+        <v>6.16761086246317e-10</v>
       </c>
       <c r="F40" t="n">
-        <v>1.153888967985205</v>
+        <v>0.9948328022537701</v>
       </c>
       <c r="G40" t="n">
-        <v>5.247055039397967e-16</v>
+        <v>2.684318582598961e-17</v>
       </c>
       <c r="H40" t="n">
-        <v>0.9947235151908376</v>
+        <v>1.122344563695556</v>
       </c>
       <c r="I40" t="n">
-        <v>9.684863766648621e-16</v>
+        <v>1.514367211236537e-09</v>
       </c>
       <c r="J40" t="n">
-        <v>0.9201593839340504</v>
+        <v>0.9511947662944371</v>
       </c>
       <c r="K40" t="n">
-        <v>3.902911029472708e-16</v>
+        <v>6.725238147192028e-16</v>
       </c>
       <c r="L40" t="n">
-        <v>0.8690044724617237</v>
+        <v>1.001016327257512</v>
       </c>
       <c r="M40" t="n">
-        <v>9.168308129516631e-15</v>
+        <v>7.694005343475971e-16</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.8511973859821726</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.825209720520677e-16</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.9607994809708339</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4.408035405638352e-10</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.7392162635818132</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5.123227923480351e-17</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.8451486509170368</v>
+      </c>
+      <c r="U40" t="n">
+        <v>7.51795454140937e-10</v>
       </c>
     </row>
     <row r="41">
@@ -2104,40 +3080,64 @@
         <v>45.45454545454546</v>
       </c>
       <c r="B41" t="n">
-        <v>2.735650844990625</v>
+        <v>2.720475372583575</v>
       </c>
       <c r="C41" t="n">
-        <v>2.01915128486476e-17</v>
+        <v>6.984821922399759e-17</v>
       </c>
       <c r="D41" t="n">
-        <v>2.116707446168147</v>
+        <v>2.309391771905461</v>
       </c>
       <c r="E41" t="n">
-        <v>1.367268266526213e-15</v>
+        <v>4.990690953321253e-11</v>
       </c>
       <c r="F41" t="n">
-        <v>1.195832848153217</v>
+        <v>0.9982082215432492</v>
       </c>
       <c r="G41" t="n">
-        <v>9.180499334449135e-17</v>
+        <v>1.566069274299403e-17</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9973561926564201</v>
+        <v>1.147135233099506</v>
       </c>
       <c r="I41" t="n">
-        <v>1.893763328800939e-15</v>
+        <v>5.079539408903613e-10</v>
       </c>
       <c r="J41" t="n">
-        <v>0.9274751758754615</v>
+        <v>0.9676862179483826</v>
       </c>
       <c r="K41" t="n">
-        <v>3.411174679489486e-16</v>
+        <v>2.947716783819679e-16</v>
       </c>
       <c r="L41" t="n">
-        <v>0.8791038455495238</v>
+        <v>1.001016936470011</v>
       </c>
       <c r="M41" t="n">
-        <v>2.302331330106164e-17</v>
+        <v>1.546966181833905e-15</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.8778885698329877</v>
+      </c>
+      <c r="O41" t="n">
+        <v>2.295419571407351e-16</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.9642849043183851</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3.666422836642203e-10</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.751266680558221</v>
+      </c>
+      <c r="S41" t="n">
+        <v>6.253466258316041e-17</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.8582913525857166</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2.828230695337385e-10</v>
       </c>
     </row>
     <row r="42">
@@ -2145,40 +3145,64 @@
         <v>46.36363636363637</v>
       </c>
       <c r="B42" t="n">
-        <v>2.747460074082107</v>
+        <v>2.734306446246966</v>
       </c>
       <c r="C42" t="n">
-        <v>4.765359413807365e-17</v>
+        <v>3.754951682474258e-16</v>
       </c>
       <c r="D42" t="n">
-        <v>2.159582292728874</v>
+        <v>2.33451832126023</v>
       </c>
       <c r="E42" t="n">
-        <v>2.768304281643412e-16</v>
+        <v>6.471842597709482e-10</v>
       </c>
       <c r="F42" t="n">
-        <v>1.238759230203943</v>
+        <v>1.015169083030946</v>
       </c>
       <c r="G42" t="n">
-        <v>1.31731770783603e-16</v>
+        <v>5.001118993314849e-16</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9999410914611763</v>
+        <v>1.173369722028807</v>
       </c>
       <c r="I42" t="n">
-        <v>3.800542582060306e-15</v>
+        <v>1.897249573139792e-09</v>
       </c>
       <c r="J42" t="n">
-        <v>0.9332953822330079</v>
+        <v>0.9846980242505863</v>
       </c>
       <c r="K42" t="n">
-        <v>3.112338646152691e-16</v>
+        <v>3.558108882807463e-16</v>
       </c>
       <c r="L42" t="n">
-        <v>0.8881389769097554</v>
+        <v>1.001017558954922</v>
       </c>
       <c r="M42" t="n">
-        <v>7.062218737832436e-16</v>
+        <v>2.656960912712764e-15</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.8998903431480418</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.442945287941667e-16</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.9673262025576757</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5.196401676550833e-10</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.7624411019359043</v>
+      </c>
+      <c r="S42" t="n">
+        <v>6.486742937792135e-16</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.8700182423201615</v>
+      </c>
+      <c r="U42" t="n">
+        <v>3.567930064933367e-10</v>
       </c>
     </row>
     <row r="43">
@@ -2186,40 +3210,64 @@
         <v>47.27272727272727</v>
       </c>
       <c r="B43" t="n">
-        <v>2.758825120167788</v>
+        <v>2.747480599571067</v>
       </c>
       <c r="C43" t="n">
-        <v>1.618990235454991e-17</v>
+        <v>4.23058054246603e-16</v>
       </c>
       <c r="D43" t="n">
-        <v>2.200134611244198</v>
+        <v>2.359197414391704</v>
       </c>
       <c r="E43" t="n">
-        <v>2.514427276202736e-17</v>
+        <v>8.787291230729713e-12</v>
       </c>
       <c r="F43" t="n">
-        <v>1.28210391943097</v>
+        <v>1.05891678569591</v>
       </c>
       <c r="G43" t="n">
-        <v>1.587342898484225e-16</v>
+        <v>1.407085686153253e-16</v>
       </c>
       <c r="H43" t="n">
-        <v>1.00250419276507</v>
+        <v>1.200322787676274</v>
       </c>
       <c r="I43" t="n">
-        <v>6.90073034015113e-16</v>
+        <v>8.223363564917297e-10</v>
       </c>
       <c r="J43" t="n">
-        <v>0.9380761843668834</v>
+        <v>0.9898058989048233</v>
       </c>
       <c r="K43" t="n">
-        <v>1.664737082028971e-16</v>
+        <v>2.351814782641162e-16</v>
       </c>
       <c r="L43" t="n">
-        <v>0.8962753309455199</v>
+        <v>1.001018194728992</v>
       </c>
       <c r="M43" t="n">
-        <v>1.818363803897318e-16</v>
+        <v>1.462446966163635e-15</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.9141114715841208</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.313951685647604e-16</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.9699901707446793</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.17074009619141e-10</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.7728290903537662</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4.689729221090019e-16</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.8803982389883415</v>
+      </c>
+      <c r="U43" t="n">
+        <v>6.775172822694712e-10</v>
       </c>
     </row>
     <row r="44">
@@ -2227,40 +3275,64 @@
         <v>48.18181818181819</v>
       </c>
       <c r="B44" t="n">
-        <v>2.769767391547746</v>
+        <v>2.760041400097839</v>
       </c>
       <c r="C44" t="n">
-        <v>3.862831370654293e-18</v>
+        <v>2.202747110350946e-17</v>
       </c>
       <c r="D44" t="n">
-        <v>2.23848252013873</v>
+        <v>2.383365237374543</v>
       </c>
       <c r="E44" t="n">
-        <v>6.499082680636312e-16</v>
+        <v>2.757502732554379e-11</v>
       </c>
       <c r="F44" t="n">
-        <v>1.325458197015531</v>
+        <v>1.115212151381046</v>
       </c>
       <c r="G44" t="n">
-        <v>7.607296523205289e-17</v>
+        <v>2.013600247266523e-16</v>
       </c>
       <c r="H44" t="n">
-        <v>1.0050714114601</v>
+        <v>1.227347201588774</v>
       </c>
       <c r="I44" t="n">
-        <v>1.627141934802036e-15</v>
+        <v>2.474799369096354e-09</v>
       </c>
       <c r="J44" t="n">
-        <v>0.9421086740636661</v>
+        <v>0.9913817631718679</v>
       </c>
       <c r="K44" t="n">
-        <v>4.555627905609107e-16</v>
+        <v>2.210341991430681e-16</v>
       </c>
       <c r="L44" t="n">
-        <v>0.9036462251758695</v>
+        <v>1.001018843811864</v>
       </c>
       <c r="M44" t="n">
-        <v>1.241472246569764e-15</v>
+        <v>1.175276509254517e-15</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.9229721127409939</v>
+      </c>
+      <c r="O44" t="n">
+        <v>2.43402691794762e-16</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.9723374262889041</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>9.546522423778904e-12</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.7825081331439506</v>
+      </c>
+      <c r="S44" t="n">
+        <v>7.114305402035236e-17</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.8895533151356264</v>
+      </c>
+      <c r="U44" t="n">
+        <v>4.698340384606555e-10</v>
       </c>
     </row>
     <row r="45">
@@ -2268,40 +3340,64 @@
         <v>49.0909090909091</v>
       </c>
       <c r="B45" t="n">
-        <v>2.780307077740047</v>
+        <v>2.772028793318783</v>
       </c>
       <c r="C45" t="n">
-        <v>5.25083905431988e-17</v>
+        <v>3.212051143943277e-17</v>
       </c>
       <c r="D45" t="n">
-        <v>2.274748620117488</v>
+        <v>2.406969133825388</v>
       </c>
       <c r="E45" t="n">
-        <v>2.337623482313208e-16</v>
+        <v>1.322196786745895e-09</v>
       </c>
       <c r="F45" t="n">
-        <v>1.368518632144206</v>
+        <v>1.175873659357725</v>
       </c>
       <c r="G45" t="n">
-        <v>3.387595372368395e-16</v>
+        <v>3.517473796880574e-16</v>
       </c>
       <c r="H45" t="n">
-        <v>1.007669211893849</v>
+        <v>1.25393853940189</v>
       </c>
       <c r="I45" t="n">
-        <v>8.153878946768658e-17</v>
+        <v>8.581004405258177e-10</v>
       </c>
       <c r="J45" t="n">
-        <v>0.9455835520344488</v>
+        <v>0.9922022819865443</v>
       </c>
       <c r="K45" t="n">
-        <v>5.550706068365875e-17</v>
+        <v>2.423150117635806e-17</v>
       </c>
       <c r="L45" t="n">
-        <v>0.9103599439739921</v>
+        <v>1.001019506225702</v>
       </c>
       <c r="M45" t="n">
-        <v>2.121102888760329e-15</v>
+        <v>1.487604220251959e-15</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.9290452322035</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.211409271580645e-17</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.9744204437626757</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5.391941405298068e-10</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.7936752435944798</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4.378797468437852e-16</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.8976317173885908</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.439125119367012e-09</v>
       </c>
     </row>
     <row r="46">
@@ -2309,40 +3405,64 @@
         <v>50</v>
       </c>
       <c r="B46" t="n">
-        <v>2.790463225946141</v>
+        <v>2.783479456040787</v>
       </c>
       <c r="C46" t="n">
-        <v>9.66469797191689e-17</v>
+        <v>7.540023527013999e-17</v>
       </c>
       <c r="D46" t="n">
-        <v>2.309055574278592</v>
+        <v>2.429967440692252</v>
       </c>
       <c r="E46" t="n">
-        <v>5.450699996343893e-16</v>
+        <v>1.551384996028505e-10</v>
       </c>
       <c r="F46" t="n">
-        <v>1.411057422118107</v>
+        <v>1.237305301883386</v>
       </c>
       <c r="G46" t="n">
-        <v>1.524453581254997e-16</v>
+        <v>9.214736104137406e-17</v>
       </c>
       <c r="H46" t="n">
-        <v>1.010325242750982</v>
+        <v>1.279748148571139</v>
       </c>
       <c r="I46" t="n">
-        <v>1.089829709089895e-15</v>
+        <v>1.551146539786259e-09</v>
       </c>
       <c r="J46" t="n">
-        <v>0.9486297698210805</v>
+        <v>0.9927551003803505</v>
       </c>
       <c r="K46" t="n">
-        <v>9.391385820872521e-17</v>
+        <v>1.640566753469124e-16</v>
       </c>
       <c r="L46" t="n">
-        <v>0.9165050896674892</v>
+        <v>1.001020181994763</v>
       </c>
       <c r="M46" t="n">
-        <v>2.477313312119257e-16</v>
+        <v>8.961266731790268e-17</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.9336377919432083</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.648107983816233e-16</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.9762834574352728</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.265204374631219e-10</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.8061555060640117</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1.451016699548141e-16</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.9047850728635854</v>
+      </c>
+      <c r="U46" t="n">
+        <v>3.591114660699223e-10</v>
       </c>
     </row>
     <row r="47">
@@ -2350,40 +3470,64 @@
         <v>50.90909090909091</v>
       </c>
       <c r="B47" t="n">
-        <v>2.800253812683304</v>
+        <v>2.794427110735692</v>
       </c>
       <c r="C47" t="n">
-        <v>1.203367298308542e-16</v>
+        <v>7.281941875747483e-17</v>
       </c>
       <c r="D47" t="n">
-        <v>2.341523231079949</v>
+        <v>2.452328840223942</v>
       </c>
       <c r="E47" t="n">
-        <v>2.371682870251126e-17</v>
+        <v>4.664636881371482e-10</v>
       </c>
       <c r="F47" t="n">
-        <v>1.452903985181692</v>
+        <v>1.297749146644706</v>
       </c>
       <c r="G47" t="n">
-        <v>4.934555098737837e-16</v>
+        <v>4.485973467062441e-16</v>
       </c>
       <c r="H47" t="n">
-        <v>1.013069010742981</v>
+        <v>1.304564683430156</v>
       </c>
       <c r="I47" t="n">
-        <v>1.417925384940823e-16</v>
+        <v>5.701352470800238e-10</v>
       </c>
       <c r="J47" t="n">
-        <v>0.9513373586021017</v>
+        <v>0.9931797923796503</v>
       </c>
       <c r="K47" t="n">
-        <v>1.381708590029104e-16</v>
+        <v>4.759822657055384e-16</v>
       </c>
       <c r="L47" t="n">
-        <v>0.9221546392206282</v>
+        <v>1.00102087114575</v>
       </c>
       <c r="M47" t="n">
-        <v>1.285266166440775e-15</v>
+        <v>4.527195382836674e-17</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.9373628246645361</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.476781491764387e-16</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.9779632854309381</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>7.528248076370878e-11</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.8167890336430176</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2.313157610812868e-16</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.9111541762162376</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.152543434712629e-10</v>
       </c>
     </row>
     <row r="48">
@@ -2391,40 +3535,64 @@
         <v>51.81818181818182</v>
       </c>
       <c r="B48" t="n">
-        <v>2.80969581083094</v>
+        <v>2.804902805640385</v>
       </c>
       <c r="C48" t="n">
-        <v>4.633645295477923e-18</v>
+        <v>5.378632065988645e-17</v>
       </c>
       <c r="D48" t="n">
-        <v>2.37226682895051</v>
+        <v>2.474031477060722</v>
       </c>
       <c r="E48" t="n">
-        <v>7.598821122967951e-16</v>
+        <v>4.159271819122806e-10</v>
       </c>
       <c r="F48" t="n">
-        <v>1.49393242551353</v>
+        <v>1.356339119339141</v>
       </c>
       <c r="G48" t="n">
-        <v>2.482417097300929e-16</v>
+        <v>2.451655027520725e-16</v>
       </c>
       <c r="H48" t="n">
-        <v>1.015932613731122</v>
+        <v>1.328283739210917</v>
       </c>
       <c r="I48" t="n">
-        <v>1.721004939885173e-15</v>
+        <v>4.087617862249025e-09</v>
       </c>
       <c r="J48" t="n">
-        <v>0.9537711076554874</v>
+        <v>0.9935307705299184</v>
       </c>
       <c r="K48" t="n">
-        <v>5.812658768047448e-17</v>
+        <v>1.640868926721327e-16</v>
       </c>
       <c r="L48" t="n">
-        <v>0.9273690463162327</v>
+        <v>1.001021573707175</v>
       </c>
       <c r="M48" t="n">
-        <v>2.7256373632234e-16</v>
+        <v>1.231814777287553e-16</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.9405278539605694</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.797260960363411e-17</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.9794904768643564</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.882708398260471e-11</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.8260772558871413</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1.94241867188774e-16</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.9168625789642171</v>
+      </c>
+      <c r="U48" t="n">
+        <v>9.675709389367032e-10</v>
       </c>
     </row>
     <row r="49">
@@ -2432,40 +3600,64 @@
         <v>52.72727272727273</v>
       </c>
       <c r="B49" t="n">
-        <v>2.818805252340618</v>
+        <v>2.814935164742776</v>
       </c>
       <c r="C49" t="n">
-        <v>5.26060201618175e-18</v>
+        <v>3.294211606619157e-17</v>
       </c>
       <c r="D49" t="n">
-        <v>2.401395949593788</v>
+        <v>2.495061892049794</v>
       </c>
       <c r="E49" t="n">
-        <v>9.368220860312646e-16</v>
+        <v>1.489664948150471e-10</v>
       </c>
       <c r="F49" t="n">
-        <v>1.534052221897578</v>
+        <v>1.412670708483406</v>
       </c>
       <c r="G49" t="n">
-        <v>5.151685757814419e-16</v>
+        <v>4.440728951936506e-16</v>
       </c>
       <c r="H49" t="n">
-        <v>1.018951555245236</v>
+        <v>1.350877689357367</v>
       </c>
       <c r="I49" t="n">
-        <v>1.260681311948153e-15</v>
+        <v>4.810825517904337e-10</v>
       </c>
       <c r="J49" t="n">
-        <v>0.9559789570138918</v>
+        <v>0.993833755017145</v>
       </c>
       <c r="K49" t="n">
-        <v>2.700583746076791e-16</v>
+        <v>1.427569826385563e-16</v>
       </c>
       <c r="L49" t="n">
-        <v>0.932198636949946</v>
+        <v>1.001022289709362</v>
       </c>
       <c r="M49" t="n">
-        <v>7.169798203085212e-16</v>
+        <v>4.032560560531285e-19</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.9433013115826789</v>
+      </c>
+      <c r="O49" t="n">
+        <v>8.904250055076866e-17</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.9808904746508733</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1.639697544768037e-10</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.8343427345368543</v>
+      </c>
+      <c r="S49" t="n">
+        <v>7.328082783068289e-17</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0.9220152581209656</v>
+      </c>
+      <c r="U49" t="n">
+        <v>2.510235462282359e-10</v>
       </c>
     </row>
     <row r="50">
@@ -2473,40 +3665,64 @@
         <v>53.63636363636364</v>
       </c>
       <c r="B50" t="n">
-        <v>2.827597286857906</v>
+        <v>2.824550611245574</v>
       </c>
       <c r="C50" t="n">
-        <v>1.547326892503823e-16</v>
+        <v>7.340405311679646e-17</v>
       </c>
       <c r="D50" t="n">
-        <v>2.429013982784991</v>
+        <v>2.515413906701419</v>
       </c>
       <c r="E50" t="n">
-        <v>7.224221301126721e-17</v>
+        <v>1.431768148386304e-11</v>
       </c>
       <c r="F50" t="n">
-        <v>1.57320091706879</v>
+        <v>1.466586796152908</v>
       </c>
       <c r="G50" t="n">
-        <v>5.218969396913365e-17</v>
+        <v>6.226393528693383e-17</v>
       </c>
       <c r="H50" t="n">
-        <v>1.022165663956786</v>
+        <v>1.372370567189358</v>
       </c>
       <c r="I50" t="n">
-        <v>5.280353899999773e-16</v>
+        <v>4.000593892096217e-10</v>
       </c>
       <c r="J50" t="n">
-        <v>0.957997286978323</v>
+        <v>0.9941026282355806</v>
       </c>
       <c r="K50" t="n">
-        <v>3.472478167380888e-16</v>
+        <v>2.78418931694423e-16</v>
       </c>
       <c r="L50" t="n">
-        <v>0.9366854810833113</v>
+        <v>1.001023019184724</v>
       </c>
       <c r="M50" t="n">
-        <v>8.742662230508098e-16</v>
+        <v>1.295533581882987e-16</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.9457831981049576</v>
+      </c>
+      <c r="O50" t="n">
+        <v>5.921855079102381e-16</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.9821846750307449</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1.573034991011648e-10</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.8418012695569216</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5.679376488608294e-16</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.9266998978033614</v>
+      </c>
+      <c r="U50" t="n">
+        <v>4.652249839230441e-11</v>
       </c>
     </row>
     <row r="51">
@@ -2514,40 +3730,64 @@
         <v>54.54545454545455</v>
       </c>
       <c r="B51" t="n">
-        <v>2.836086236499901</v>
+        <v>2.833773567632954</v>
       </c>
       <c r="C51" t="n">
-        <v>1.984309461415563e-16</v>
+        <v>1.735754502288519e-16</v>
       </c>
       <c r="D51" t="n">
-        <v>2.455217935299749</v>
+        <v>2.535087513785013</v>
       </c>
       <c r="E51" t="n">
-        <v>7.66289554588159e-17</v>
+        <v>4.360121763230012e-12</v>
       </c>
       <c r="F51" t="n">
-        <v>1.611338232086874</v>
+        <v>1.518065157421384</v>
       </c>
       <c r="G51" t="n">
-        <v>7.482873934957434e-17</v>
+        <v>1.201996031921893e-17</v>
       </c>
       <c r="H51" t="n">
-        <v>1.025620143255017</v>
+        <v>1.392819278697336</v>
       </c>
       <c r="I51" t="n">
-        <v>7.262439175046604e-17</v>
+        <v>4.270098890763681e-11</v>
       </c>
       <c r="J51" t="n">
-        <v>0.9598543434420246</v>
+        <v>0.9943456562826641</v>
       </c>
       <c r="K51" t="n">
-        <v>3.379422005904257e-16</v>
+        <v>5.263988118549537e-17</v>
       </c>
       <c r="L51" t="n">
-        <v>0.940864875753668</v>
+        <v>1.001023762167045</v>
       </c>
       <c r="M51" t="n">
-        <v>1.121476279502161e-15</v>
+        <v>1.156787351409818e-15</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.9480371429288452</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.219259929063721e-16</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.9833913374255083</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>7.278334675794841e-11</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.8486031898301583</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2.462297760407749e-16</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.9309892347475135</v>
+      </c>
+      <c r="U51" t="n">
+        <v>2.790062609215955e-10</v>
       </c>
     </row>
     <row r="52">
@@ -2555,40 +3795,64 @@
         <v>55.45454545454546</v>
       </c>
       <c r="B52" t="n">
-        <v>2.844285647025398</v>
+        <v>2.842626635063474</v>
       </c>
       <c r="C52" t="n">
-        <v>2.182058389660677e-17</v>
+        <v>5.627398577419684e-18</v>
       </c>
       <c r="D52" t="n">
-        <v>2.480098466742704</v>
+        <v>2.554087830130194</v>
       </c>
       <c r="E52" t="n">
-        <v>2.948785317932558e-17</v>
+        <v>4.877919558376968e-10</v>
       </c>
       <c r="F52" t="n">
-        <v>1.648441298101269</v>
+        <v>1.567157018303198</v>
       </c>
       <c r="G52" t="n">
-        <v>4.344241045928504e-16</v>
+        <v>3.380770023871348e-16</v>
       </c>
       <c r="H52" t="n">
-        <v>1.02936677701921</v>
+        <v>1.412300251226296</v>
       </c>
       <c r="I52" t="n">
-        <v>1.942610187656026e-15</v>
+        <v>3.196576523028443e-10</v>
       </c>
       <c r="J52" t="n">
-        <v>0.9615725148944229</v>
+        <v>0.994568151711505</v>
       </c>
       <c r="K52" t="n">
-        <v>7.865270764380201e-17</v>
+        <v>1.688228539888645e-16</v>
       </c>
       <c r="L52" t="n">
-        <v>0.9447665406057242</v>
+        <v>1.001024518692208</v>
       </c>
       <c r="M52" t="n">
-        <v>2.194275604452911e-15</v>
+        <v>4.377166782410643e-16</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.9501060787144698</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.762052930215106e-16</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.9845263570707065</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1.728248132253764e-10</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.8548572719428301</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3.438051755592397e-16</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.9349435844676215</v>
+      </c>
+      <c r="U52" t="n">
+        <v>6.134362260660157e-10</v>
       </c>
     </row>
     <row r="53">
@@ -2596,40 +3860,64 @@
         <v>56.36363636363637</v>
       </c>
       <c r="B53" t="n">
-        <v>2.852208335625173</v>
+        <v>2.851130754464773</v>
       </c>
       <c r="C53" t="n">
-        <v>8.352611848419979e-20</v>
+        <v>3.474998333730811e-18</v>
       </c>
       <c r="D53" t="n">
-        <v>2.503740070713943</v>
+        <v>2.572424142261214</v>
       </c>
       <c r="E53" t="n">
-        <v>6.908581603881203e-16</v>
+        <v>1.828286918469065e-10</v>
       </c>
       <c r="F53" t="n">
-        <v>1.684500803399146</v>
+        <v>1.613952528253414</v>
       </c>
       <c r="G53" t="n">
-        <v>1.61830845002998e-16</v>
+        <v>1.134673697681136e-16</v>
       </c>
       <c r="H53" t="n">
-        <v>1.033465316749162</v>
+        <v>1.430900421223612</v>
       </c>
       <c r="I53" t="n">
-        <v>4.428915634641544e-16</v>
+        <v>2.502800165584422e-09</v>
       </c>
       <c r="J53" t="n">
-        <v>0.963169884277397</v>
+        <v>0.9947737450078438</v>
       </c>
       <c r="K53" t="n">
-        <v>3.082868260368046e-16</v>
+        <v>3.194365161903332e-16</v>
       </c>
       <c r="L53" t="n">
-        <v>0.9484156010116234</v>
+        <v>1.001025288796972</v>
       </c>
       <c r="M53" t="n">
-        <v>2.063624793721248e-15</v>
+        <v>4.478367832831332e-17</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.9520204480433819</v>
+      </c>
+      <c r="O53" t="n">
+        <v>8.71364851317805e-17</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.9856039318140938</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4.811038431783294e-10</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.8606449717327067</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3.228124338820044e-17</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.9386131631621295</v>
+      </c>
+      <c r="U53" t="n">
+        <v>2.094286247386264e-10</v>
       </c>
     </row>
     <row r="54">
@@ -2637,40 +3925,64 @@
         <v>57.27272727272727</v>
       </c>
       <c r="B54" t="n">
-        <v>2.859866435550972</v>
+        <v>2.859305351407759</v>
       </c>
       <c r="C54" t="n">
-        <v>7.768175900083757e-17</v>
+        <v>1.915727869535864e-16</v>
       </c>
       <c r="D54" t="n">
-        <v>2.526221344931957</v>
+        <v>2.590109050346395</v>
       </c>
       <c r="E54" t="n">
-        <v>2.168999036890404e-16</v>
+        <v>2.773207946381687e-10</v>
       </c>
       <c r="F54" t="n">
-        <v>1.719517897748521</v>
+        <v>1.658560974292356</v>
       </c>
       <c r="G54" t="n">
-        <v>7.704311892853079e-17</v>
+        <v>2.173183201909759e-17</v>
       </c>
       <c r="H54" t="n">
-        <v>1.037985070164805</v>
+        <v>1.448711327127656</v>
       </c>
       <c r="I54" t="n">
-        <v>3.56219314245314e-15</v>
+        <v>9.636073786838629e-10</v>
       </c>
       <c r="J54" t="n">
-        <v>0.9646613120354499</v>
+        <v>0.9949650454318132</v>
       </c>
       <c r="K54" t="n">
-        <v>3.12903896778544e-17</v>
+        <v>1.835534786551449e-16</v>
       </c>
       <c r="L54" t="n">
-        <v>0.9518334138200386</v>
+        <v>1.001026072520199</v>
       </c>
       <c r="M54" t="n">
-        <v>1.751820015763988e-15</v>
+        <v>1.143063562992636e-16</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.9538027655738951</v>
+      </c>
+      <c r="O54" t="n">
+        <v>2.268004604091703e-16</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.9866371490284349</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2.550241707185774e-11</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.8660291641219336</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2.558072754734842e-18</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.9420400757882906</v>
+      </c>
+      <c r="U54" t="n">
+        <v>3.17101333991499e-10</v>
       </c>
     </row>
     <row r="55">
@@ -2678,40 +3990,64 @@
         <v>58.18181818181819</v>
       </c>
       <c r="B55" t="n">
-        <v>2.867271437790618</v>
+        <v>2.867168466578729</v>
       </c>
       <c r="C55" t="n">
-        <v>3.558161896749422e-17</v>
+        <v>1.822699173026012e-16</v>
       </c>
       <c r="D55" t="n">
-        <v>2.547615311674977</v>
+        <v>2.607157728641411</v>
       </c>
       <c r="E55" t="n">
-        <v>2.682860633203759e-16</v>
+        <v>7.63451579420369e-11</v>
       </c>
       <c r="F55" t="n">
-        <v>1.753501720215845</v>
+        <v>1.70109932237697</v>
       </c>
       <c r="G55" t="n">
-        <v>1.497574104994851e-16</v>
+        <v>1.916919191348782e-17</v>
       </c>
       <c r="H55" t="n">
-        <v>1.043006698533273</v>
+        <v>1.465825430122031</v>
       </c>
       <c r="I55" t="n">
-        <v>8.091693746566672e-16</v>
+        <v>1.056096502541196e-09</v>
       </c>
       <c r="J55" t="n">
-        <v>0.9660592095274316</v>
+        <v>0.9951440086517854</v>
       </c>
       <c r="K55" t="n">
-        <v>3.042159562722701e-16</v>
+        <v>1.051124677336882e-16</v>
       </c>
       <c r="L55" t="n">
-        <v>0.9550382744252094</v>
+        <v>1.001026869901846</v>
       </c>
       <c r="M55" t="n">
-        <v>1.342482652876559e-15</v>
+        <v>1.023362741445474e-16</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.9554702896683001</v>
+      </c>
+      <c r="O55" t="n">
+        <v>2.031733087475789e-16</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.9876385344167828</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3.927617663325015e-11</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.8710596866300288</v>
+      </c>
+      <c r="S55" t="n">
+        <v>8.084982544478828e-17</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.9452599346462328</v>
+      </c>
+      <c r="U55" t="n">
+        <v>1.160145138662886e-10</v>
       </c>
     </row>
     <row r="56">
@@ -2719,40 +4055,64 @@
         <v>59.0909090909091</v>
       </c>
       <c r="B56" t="n">
-        <v>2.87443422998556</v>
+        <v>2.874736873443951</v>
       </c>
       <c r="C56" t="n">
-        <v>3.058625765660021e-17</v>
+        <v>1.587772966529231e-16</v>
       </c>
       <c r="D56" t="n">
-        <v>2.567989762308591</v>
+        <v>2.623587282142325</v>
       </c>
       <c r="E56" t="n">
-        <v>2.880210066995706e-16</v>
+        <v>4.29240405662669e-10</v>
       </c>
       <c r="F56" t="n">
-        <v>1.786467435445937</v>
+        <v>1.741685580280594</v>
       </c>
       <c r="G56" t="n">
-        <v>1.217648412230264e-16</v>
+        <v>3.090885501276718e-16</v>
       </c>
       <c r="H56" t="n">
-        <v>1.048624203824295</v>
+        <v>1.482333928078532</v>
       </c>
       <c r="I56" t="n">
-        <v>6.980468565720252e-16</v>
+        <v>6.886767574700864e-10</v>
       </c>
       <c r="J56" t="n">
-        <v>0.9673741040935572</v>
+        <v>0.995312153090536</v>
       </c>
       <c r="K56" t="n">
-        <v>4.246718897619257e-16</v>
+        <v>3.40509733086511e-16</v>
       </c>
       <c r="L56" t="n">
-        <v>0.9580460302306535</v>
+        <v>1.001027680983238</v>
       </c>
       <c r="M56" t="n">
-        <v>1.015236234613464e-15</v>
+        <v>1.700278910819731e-16</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.9570366597225606</v>
+      </c>
+      <c r="O56" t="n">
+        <v>9.371702564284704e-18</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.9886206030154018</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1.644401530435144e-10</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.8757769675070938</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2.424105984504607e-16</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.9483031454969356</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2.637937896291822e-11</v>
       </c>
     </row>
     <row r="57">
@@ -2760,40 +4120,64 @@
         <v>60.00000000000001</v>
       </c>
       <c r="B57" t="n">
-        <v>2.881365132776677</v>
+        <v>2.882026184507944</v>
       </c>
       <c r="C57" t="n">
-        <v>1.486875197273289e-16</v>
+        <v>7.130059965113144e-17</v>
       </c>
       <c r="D57" t="n">
-        <v>2.587407608394422</v>
+        <v>2.639416214977909</v>
       </c>
       <c r="E57" t="n">
-        <v>1.641970667735703e-16</v>
+        <v>1.31888673791594e-10</v>
       </c>
       <c r="F57" t="n">
-        <v>1.81843468073793</v>
+        <v>1.780435006176071</v>
       </c>
       <c r="G57" t="n">
-        <v>2.162650903582069e-17</v>
+        <v>7.397383704888211e-18</v>
       </c>
       <c r="H57" t="n">
-        <v>1.054947040061848</v>
+        <v>1.498325533918871</v>
       </c>
       <c r="I57" t="n">
-        <v>5.597579155783017e-16</v>
+        <v>1.024914588912984e-09</v>
       </c>
       <c r="J57" t="n">
-        <v>0.9686150618894492</v>
+        <v>0.9954706934666847</v>
       </c>
       <c r="K57" t="n">
-        <v>6.838345376596636e-17</v>
+        <v>3.757855381891776e-16</v>
       </c>
       <c r="L57" t="n">
-        <v>0.9608706144254093</v>
+        <v>1.001028505807321</v>
       </c>
       <c r="M57" t="n">
-        <v>5.454060920049225e-16</v>
+        <v>7.660168507937511e-17</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.9585129408669775</v>
+      </c>
+      <c r="O57" t="n">
+        <v>3.215020754589452e-16</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.9895964545322109</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1.239624999446848e-10</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.8802144723961639</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4.583298617304373e-17</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.9511958990210255</v>
+      </c>
+      <c r="U57" t="n">
+        <v>3.392248104899494e-10</v>
       </c>
     </row>
     <row r="58">
@@ -2801,40 +4185,64 @@
         <v>60.90909090909091</v>
       </c>
       <c r="B58" t="n">
-        <v>2.888073933752402</v>
+        <v>2.889050947397451</v>
       </c>
       <c r="C58" t="n">
-        <v>1.5670651297645e-16</v>
+        <v>1.971426385169209e-16</v>
       </c>
       <c r="D58" t="n">
-        <v>2.605927227892942</v>
+        <v>2.654663974032794</v>
       </c>
       <c r="E58" t="n">
-        <v>3.417648093824034e-16</v>
+        <v>9.669012914093258e-13</v>
       </c>
       <c r="F58" t="n">
-        <v>1.849426342471882</v>
+        <v>1.817458020112754</v>
       </c>
       <c r="G58" t="n">
-        <v>1.610094529076536e-16</v>
+        <v>7.67059851596986e-18</v>
       </c>
       <c r="H58" t="n">
-        <v>1.062102207840375</v>
+        <v>1.513885952991064</v>
       </c>
       <c r="I58" t="n">
-        <v>7.427688600962043e-17</v>
+        <v>5.111642739291059e-10</v>
       </c>
       <c r="J58" t="n">
-        <v>0.9697900128333337</v>
+        <v>0.9956206267296743</v>
       </c>
       <c r="K58" t="n">
-        <v>2.413859018927053e-16</v>
+        <v>5.75222272249269e-17</v>
       </c>
       <c r="L58" t="n">
-        <v>0.9635245055979145</v>
+        <v>1.001029344418032</v>
       </c>
       <c r="M58" t="n">
-        <v>2.220352542139073e-15</v>
+        <v>1.522203524710915e-16</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.9599083152233128</v>
+      </c>
+      <c r="O58" t="n">
+        <v>5.030809714544107e-17</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.9905804604711267</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3.731580775019985e-11</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.8844004021276443</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3.066640230043481e-16</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0.9539608978889543</v>
+      </c>
+      <c r="U58" t="n">
+        <v>3.49403378191241e-11</v>
       </c>
     </row>
     <row r="59">
@@ -2842,40 +4250,64 @@
         <v>61.81818181818183</v>
       </c>
       <c r="B59" t="n">
-        <v>2.894569919163382</v>
+        <v>2.895824731857724</v>
       </c>
       <c r="C59" t="n">
-        <v>3.266919100703985e-17</v>
+        <v>7.291417355869669e-17</v>
       </c>
       <c r="D59" t="n">
-        <v>2.623602799213032</v>
+        <v>2.669350586231603</v>
       </c>
       <c r="E59" t="n">
-        <v>9.255117049789578e-17</v>
+        <v>2.815867200799222e-10</v>
       </c>
       <c r="F59" t="n">
-        <v>1.879467595104895</v>
+        <v>1.852859142834322</v>
       </c>
       <c r="G59" t="n">
-        <v>1.470652315106698e-16</v>
+        <v>2.298073589990737e-16</v>
       </c>
       <c r="H59" t="n">
-        <v>1.07023608048887</v>
+        <v>1.529097709177567</v>
       </c>
       <c r="I59" t="n">
-        <v>2.736037725480888e-16</v>
+        <v>1.601783593449708e-09</v>
       </c>
       <c r="J59" t="n">
-        <v>0.9709060084330901</v>
+        <v>0.9957627894792023</v>
       </c>
       <c r="K59" t="n">
-        <v>2.834602844727796e-16</v>
+        <v>4.379496829179038e-17</v>
       </c>
       <c r="L59" t="n">
-        <v>0.9660191135480969</v>
+        <v>1.001030196860758</v>
       </c>
       <c r="M59" t="n">
-        <v>2.818105904299422e-16</v>
+        <v>4.532580075316971e-16</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.9612305550014878</v>
+      </c>
+      <c r="O59" t="n">
+        <v>7.266649478449816e-17</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.99158912775497</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1.044885366176734e-10</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.8883589041172381</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5.891076069388965e-17</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.9566178321513122</v>
+      </c>
+      <c r="U59" t="n">
+        <v>3.740765384889327e-10</v>
       </c>
     </row>
     <row r="60">
@@ -2883,40 +4315,64 @@
         <v>62.72727272727273</v>
       </c>
       <c r="B60" t="n">
-        <v>2.900861903556475</v>
+        <v>2.902360208619127</v>
       </c>
       <c r="C60" t="n">
-        <v>1.085094651279459e-18</v>
+        <v>2.080156221761838e-17</v>
       </c>
       <c r="D60" t="n">
-        <v>2.640484618739175</v>
+        <v>2.683496353031543</v>
       </c>
       <c r="E60" t="n">
-        <v>2.823193908379544e-16</v>
+        <v>8.274441937116755e-11</v>
       </c>
       <c r="F60" t="n">
-        <v>1.908585148695766</v>
+        <v>1.886736555335564</v>
       </c>
       <c r="G60" t="n">
-        <v>9.131602398831769e-17</v>
+        <v>2.167698530878106e-16</v>
       </c>
       <c r="H60" t="n">
-        <v>1.07951556439231</v>
+        <v>1.544040251142395</v>
       </c>
       <c r="I60" t="n">
-        <v>4.529380889744575e-16</v>
+        <v>3.271198209829236e-09</v>
       </c>
       <c r="J60" t="n">
-        <v>0.9719694348402351</v>
+        <v>0.9958978977093379</v>
       </c>
       <c r="K60" t="n">
-        <v>2.154159680543791e-16</v>
+        <v>6.339201252468861e-17</v>
       </c>
       <c r="L60" t="n">
-        <v>0.9683650899945272</v>
+        <v>1.001031063182056</v>
       </c>
       <c r="M60" t="n">
-        <v>2.260166640887834e-15</v>
+        <v>1.391559483310545e-15</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.9624863570137274</v>
+      </c>
+      <c r="O60" t="n">
+        <v>2.045673325033577e-16</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.9926422028507967</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1.333932623865357e-10</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.8921109613055468</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5.768190420746655e-17</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.9591836094540795</v>
+      </c>
+      <c r="U60" t="n">
+        <v>1.986610549657578e-10</v>
       </c>
     </row>
     <row r="61">
@@ -2924,40 +4380,64 @@
         <v>63.63636363636365</v>
       </c>
       <c r="B61" t="n">
-        <v>2.906958257471683</v>
+        <v>2.908669220981756</v>
       </c>
       <c r="C61" t="n">
-        <v>5.664975023652517e-17</v>
+        <v>1.020546208765626e-16</v>
       </c>
       <c r="D61" t="n">
-        <v>2.656619399471814</v>
+        <v>2.69712161410744</v>
       </c>
       <c r="E61" t="n">
-        <v>2.948501538026588e-16</v>
+        <v>2.676984135792186e-10</v>
       </c>
       <c r="F61" t="n">
-        <v>1.936806661651722</v>
+        <v>1.919182030890247</v>
       </c>
       <c r="G61" t="n">
-        <v>2.879502562841468e-16</v>
+        <v>3.708761345895166e-16</v>
       </c>
       <c r="H61" t="n">
-        <v>1.09012802587991</v>
+        <v>1.558790162904229</v>
       </c>
       <c r="I61" t="n">
-        <v>1.216169170554348e-15</v>
+        <v>1.562568352742425e-10</v>
       </c>
       <c r="J61" t="n">
-        <v>0.9729861985341413</v>
+        <v>0.9960265753043419</v>
       </c>
       <c r="K61" t="n">
-        <v>7.597004060341372e-17</v>
+        <v>3.720528874280284e-17</v>
       </c>
       <c r="L61" t="n">
-        <v>0.9705725643619196</v>
+        <v>1.001031943429732</v>
       </c>
       <c r="M61" t="n">
-        <v>1.880237897598449e-15</v>
+        <v>1.344946358749698e-18</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.9636815872247304</v>
+      </c>
+      <c r="O61" t="n">
+        <v>2.703497388665404e-16</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.9937641506331872</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1.630797571383671e-10</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.8956750642494593</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1.154738634336287e-16</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.9616722949597224</v>
+      </c>
+      <c r="U61" t="n">
+        <v>4.08123879939744e-11</v>
       </c>
     </row>
     <row r="62">
@@ -2965,40 +4445,64 @@
         <v>64.54545454545455</v>
       </c>
       <c r="B62" t="n">
-        <v>2.912866933335625</v>
+        <v>2.91476284986808</v>
       </c>
       <c r="C62" t="n">
-        <v>6.386345851941132e-17</v>
+        <v>1.003742160079367e-16</v>
       </c>
       <c r="D62" t="n">
-        <v>2.672050549750883</v>
+        <v>2.710246551490945</v>
       </c>
       <c r="E62" t="n">
-        <v>7.699505106584927e-17</v>
+        <v>3.129140668111343e-11</v>
       </c>
       <c r="F62" t="n">
-        <v>1.964160284215251</v>
+        <v>1.950281086317846</v>
       </c>
       <c r="G62" t="n">
-        <v>1.250275043017537e-16</v>
+        <v>3.458040001912486e-17</v>
       </c>
       <c r="H62" t="n">
-        <v>1.102279251369843</v>
+        <v>1.573421419932372</v>
       </c>
       <c r="I62" t="n">
-        <v>8.841321758800636e-16</v>
+        <v>9.909347072907569e-11</v>
       </c>
       <c r="J62" t="n">
-        <v>0.9739618996797978</v>
+        <v>0.9961493752581356</v>
       </c>
       <c r="K62" t="n">
-        <v>7.916987801319447e-17</v>
+        <v>2.454639082426773e-16</v>
       </c>
       <c r="L62" t="n">
-        <v>0.9726513085041334</v>
+        <v>1.001032837652779</v>
       </c>
       <c r="M62" t="n">
-        <v>2.412532914456701e-15</v>
+        <v>8.964268374875755e-16</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.9648214662230938</v>
+      </c>
+      <c r="O62" t="n">
+        <v>3.853722147767113e-17</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.9949861314433693</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1.532679328756062e-10</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.8990677368815833</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1.412203321366205e-16</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.9640947270214727</v>
+      </c>
+      <c r="U62" t="n">
+        <v>1.921843331204988e-11</v>
       </c>
     </row>
     <row r="63">
@@ -3006,40 +4510,64 @@
         <v>65.45454545454545</v>
       </c>
       <c r="B63" t="n">
-        <v>2.918595489676223</v>
+        <v>2.920651473008825</v>
       </c>
       <c r="C63" t="n">
-        <v>9.94335963350499e-18</v>
+        <v>7.538198739137666e-17</v>
       </c>
       <c r="D63" t="n">
-        <v>2.68681843193163</v>
+        <v>2.722891042547446</v>
       </c>
       <c r="E63" t="n">
-        <v>7.040039111651761e-17</v>
+        <v>2.019812497143866e-11</v>
       </c>
       <c r="F63" t="n">
-        <v>1.990674305349268</v>
+        <v>1.980113257263244</v>
       </c>
       <c r="G63" t="n">
-        <v>3.627164105809866e-17</v>
+        <v>2.471768832454001e-16</v>
       </c>
       <c r="H63" t="n">
-        <v>1.116188594189397</v>
+        <v>1.588005606065436</v>
       </c>
       <c r="I63" t="n">
-        <v>2.559097099131127e-15</v>
+        <v>8.414572991985775e-11</v>
       </c>
       <c r="J63" t="n">
-        <v>0.9749020081348173</v>
+        <v>0.9962667961909</v>
       </c>
       <c r="K63" t="n">
-        <v>1.127282619311272e-16</v>
+        <v>6.827270122930718e-17</v>
       </c>
       <c r="L63" t="n">
-        <v>0.9746108386332066</v>
+        <v>1.00103374590124</v>
       </c>
       <c r="M63" t="n">
-        <v>5.412461763546011e-16</v>
+        <v>8.245125242364353e-16</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.9659107161850707</v>
+      </c>
+      <c r="O63" t="n">
+        <v>5.933665783889899e-17</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.9963486377169206</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1.088351233800594e-11</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.9023039653345202</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3.2133382677974e-17</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.9664577595663795</v>
+      </c>
+      <c r="U63" t="n">
+        <v>1.215307317796014e-10</v>
       </c>
     </row>
     <row r="64">
@@ -3047,40 +4575,64 @@
         <v>66.36363636363637</v>
       </c>
       <c r="B64" t="n">
-        <v>2.924151113774619</v>
+        <v>2.92634481885255</v>
       </c>
       <c r="C64" t="n">
-        <v>1.664043993976686e-16</v>
+        <v>1.292702108134725e-16</v>
       </c>
       <c r="D64" t="n">
-        <v>2.700960601478659</v>
+        <v>2.735074545868496</v>
       </c>
       <c r="E64" t="n">
-        <v>6.333748058075113e-17</v>
+        <v>1.547708371446101e-10</v>
       </c>
       <c r="F64" t="n">
-        <v>2.016376881386042</v>
+        <v>2.008752438167586</v>
       </c>
       <c r="G64" t="n">
-        <v>2.237597254462797e-16</v>
+        <v>6.268501607680323e-17</v>
       </c>
       <c r="H64" t="n">
-        <v>1.132080467217758</v>
+        <v>1.602612102533251</v>
       </c>
       <c r="I64" t="n">
-        <v>2.09359098372341e-16</v>
+        <v>9.285269232274362e-10</v>
       </c>
       <c r="J64" t="n">
-        <v>0.9758120595793014</v>
+        <v>0.9963792959399439</v>
       </c>
       <c r="K64" t="n">
-        <v>9.535085147231284e-17</v>
+        <v>7.362401125753322e-17</v>
       </c>
       <c r="L64" t="n">
-        <v>0.9764604664647657</v>
+        <v>1.001034668226634</v>
       </c>
       <c r="M64" t="n">
-        <v>8.415410366428416e-17</v>
+        <v>3.636515944561792e-16</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.9669536839726331</v>
+      </c>
+      <c r="O64" t="n">
+        <v>3.703786900296673e-18</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.9979048909136295</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2.415914520485378e-10</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.9053975670051277</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5.422155125765402e-17</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0.9687631325448498</v>
+      </c>
+      <c r="U64" t="n">
+        <v>2.995035935719043e-11</v>
       </c>
     </row>
     <row r="65">
@@ -3088,40 +4640,64 @@
         <v>67.27272727272728</v>
       </c>
       <c r="B65" t="n">
-        <v>2.929540642862403</v>
+        <v>2.931852015724272</v>
       </c>
       <c r="C65" t="n">
-        <v>2.346003052615267e-17</v>
+        <v>5.287166930432086e-17</v>
       </c>
       <c r="D65" t="n">
-        <v>2.714512027280785</v>
+        <v>2.746816014967539</v>
       </c>
       <c r="E65" t="n">
-        <v>3.2625440210504e-17</v>
+        <v>7.614527661588004e-12</v>
       </c>
       <c r="F65" t="n">
-        <v>2.041295829335617</v>
+        <v>2.036267250090505</v>
       </c>
       <c r="G65" t="n">
-        <v>2.877198000104892e-17</v>
+        <v>1.092843074321614e-16</v>
       </c>
       <c r="H65" t="n">
-        <v>1.150171549476441</v>
+        <v>1.617308100242417</v>
       </c>
       <c r="I65" t="n">
-        <v>3.495309301154489e-16</v>
+        <v>9.993345134064746e-11</v>
       </c>
       <c r="J65" t="n">
-        <v>0.976697895306739</v>
+        <v>0.9964873035728059</v>
       </c>
       <c r="K65" t="n">
-        <v>1.849101138180522e-16</v>
+        <v>5.345465905841574e-17</v>
       </c>
       <c r="L65" t="n">
-        <v>0.9782093136788002</v>
+        <v>1.001035604681781</v>
       </c>
       <c r="M65" t="n">
-        <v>1.351444881596586e-15</v>
+        <v>5.418530131169996e-15</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.9679544519022062</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1.907377936231915e-16</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.9997249625712972</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4.167262000572513e-10</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.9083615310928906</v>
+      </c>
+      <c r="S65" t="n">
+        <v>9.234025270250566e-17</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0.9710061294586237</v>
+      </c>
+      <c r="U65" t="n">
+        <v>1.655156841389196e-10</v>
       </c>
     </row>
     <row r="66">
@@ -3129,40 +4705,64 @@
         <v>68.18181818181819</v>
       </c>
       <c r="B66" t="n">
-        <v>2.934770583964586</v>
+        <v>2.937181636700714</v>
       </c>
       <c r="C66" t="n">
-        <v>1.70789451778724e-16</v>
+        <v>1.805990866168472e-16</v>
       </c>
       <c r="D66" t="n">
-        <v>2.727505294230386</v>
+        <v>2.75813383605973</v>
       </c>
       <c r="E66" t="n">
-        <v>8.482316739347646e-17</v>
+        <v>2.988374926993783e-11</v>
       </c>
       <c r="F66" t="n">
-        <v>2.065458471328495</v>
+        <v>2.062721413745809</v>
       </c>
       <c r="G66" t="n">
-        <v>1.51548304712553e-16</v>
+        <v>1.911902799621546e-16</v>
       </c>
       <c r="H66" t="n">
-        <v>1.17065359068532</v>
+        <v>1.632158510264037</v>
       </c>
       <c r="I66" t="n">
-        <v>2.58663126833552e-16</v>
+        <v>1.278522004357141e-09</v>
       </c>
       <c r="J66" t="n">
-        <v>0.9775659810917885</v>
+        <v>0.9965912310102863</v>
       </c>
       <c r="K66" t="n">
-        <v>1.176902966382208e-16</v>
+        <v>8.600952678176164e-17</v>
       </c>
       <c r="L66" t="n">
-        <v>0.9798663039101245</v>
+        <v>1.00103655531565</v>
       </c>
       <c r="M66" t="n">
-        <v>2.293866425427339e-16</v>
+        <v>1.535973466740822e-14</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.9689169467552267</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1.536361015033997e-16</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1.001900264092195</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3.214696632155885e-10</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.9112083612388425</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1.360434698640098e-16</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0.9731745009604816</v>
+      </c>
+      <c r="U66" t="n">
+        <v>2.205924714123123e-10</v>
       </c>
     </row>
     <row r="67">
@@ -3170,40 +4770,64 @@
         <v>69.09090909090909</v>
       </c>
       <c r="B67" t="n">
-        <v>2.939847132481596</v>
+        <v>2.942341740619159</v>
       </c>
       <c r="C67" t="n">
-        <v>8.764600166217099e-17</v>
+        <v>4.546082308177987e-17</v>
       </c>
       <c r="D67" t="n">
-        <v>2.739970789206398</v>
+        <v>2.769045785194281</v>
       </c>
       <c r="E67" t="n">
-        <v>6.845436220936562e-17</v>
+        <v>3.009618660046975e-11</v>
       </c>
       <c r="F67" t="n">
-        <v>2.088891519488152</v>
+        <v>2.088174114139962</v>
       </c>
       <c r="G67" t="n">
-        <v>1.235848335368128e-17</v>
+        <v>2.780456912220102e-16</v>
       </c>
       <c r="H67" t="n">
-        <v>1.193672627330087</v>
+        <v>1.647225660697649</v>
       </c>
       <c r="I67" t="n">
-        <v>4.237903874812734e-15</v>
+        <v>4.796701358357122e-10</v>
       </c>
       <c r="J67" t="n">
-        <v>0.9784238628629325</v>
+        <v>0.9966914855122744</v>
       </c>
       <c r="K67" t="n">
-        <v>9.335673500086258e-17</v>
+        <v>9.999577089766506e-17</v>
       </c>
       <c r="L67" t="n">
-        <v>0.9814401448900001</v>
+        <v>1.004547552110225</v>
       </c>
       <c r="M67" t="n">
-        <v>2.712382384596357e-16</v>
+        <v>3.595807646523229e-10</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.9698450586834982</v>
+      </c>
+      <c r="O67" t="n">
+        <v>8.688845853974795e-17</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1.001037520191685</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3.769467578304866e-15</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.9139504561034056</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1.680453139017561e-16</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.9752485305522784</v>
+      </c>
+      <c r="U67" t="n">
+        <v>6.755887663784646e-11</v>
       </c>
     </row>
     <row r="68">
@@ -3211,40 +4835,64 @@
         <v>70</v>
       </c>
       <c r="B68" t="n">
-        <v>2.94477618959695</v>
+        <v>2.947339909592243</v>
       </c>
       <c r="C68" t="n">
-        <v>2.006083057205302e-17</v>
+        <v>9.775934935941718e-18</v>
       </c>
       <c r="D68" t="n">
-        <v>2.751936871638045</v>
+        <v>2.779569001256867</v>
       </c>
       <c r="E68" t="n">
-        <v>5.88755901920659e-17</v>
+        <v>3.04713118249382e-11</v>
       </c>
       <c r="F68" t="n">
-        <v>2.111620992751478</v>
+        <v>2.112680348956516</v>
       </c>
       <c r="G68" t="n">
-        <v>2.100685398599667e-17</v>
+        <v>1.070663796591233e-16</v>
       </c>
       <c r="H68" t="n">
-        <v>1.219306789224504</v>
+        <v>1.662568780970257</v>
       </c>
       <c r="I68" t="n">
-        <v>2.220684842403968e-15</v>
+        <v>2.383644184711807e-10</v>
       </c>
       <c r="J68" t="n">
-        <v>0.9792808592813275</v>
+        <v>0.9967884846366325</v>
       </c>
       <c r="K68" t="n">
-        <v>2.438244071227868e-16</v>
+        <v>1.651359930745039e-16</v>
       </c>
       <c r="L68" t="n">
-        <v>0.9829393107168459</v>
+        <v>1.007811316370851</v>
       </c>
       <c r="M68" t="n">
-        <v>8.192594405474816e-16</v>
+        <v>3.660089299274565e-10</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.9707427854159969</v>
+      </c>
+      <c r="O68" t="n">
+        <v>1.800353138779626e-17</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1.001038499359626</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>8.503571760676953e-16</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.9166005771515185</v>
+      </c>
+      <c r="S68" t="n">
+        <v>9.680428203101935e-17</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.9772033084258228</v>
+      </c>
+      <c r="U68" t="n">
+        <v>1.259984194213499e-10</v>
       </c>
     </row>
     <row r="69">
@@ -3252,40 +4900,64 @@
         <v>70.90909090909092</v>
       </c>
       <c r="B69" t="n">
-        <v>2.949563378591376</v>
+        <v>2.95218328336173</v>
       </c>
       <c r="C69" t="n">
-        <v>4.890784689154879e-17</v>
+        <v>1.984526048915941e-17</v>
       </c>
       <c r="D69" t="n">
-        <v>2.763430029831013</v>
+        <v>2.789719969718089</v>
       </c>
       <c r="E69" t="n">
-        <v>2.223133036280863e-17</v>
+        <v>6.44147591133176e-12</v>
       </c>
       <c r="F69" t="n">
-        <v>2.133672158906224</v>
+        <v>2.136291256494367</v>
       </c>
       <c r="G69" t="n">
-        <v>3.67051707042518e-17</v>
+        <v>1.063865836697709e-16</v>
       </c>
       <c r="H69" t="n">
-        <v>1.247546426721214</v>
+        <v>1.678243273445215</v>
       </c>
       <c r="I69" t="n">
-        <v>1.627159938598189e-15</v>
+        <v>1.346474215659272e-09</v>
       </c>
       <c r="J69" t="n">
-        <v>0.9801491745209422</v>
+        <v>0.9968826760779834</v>
       </c>
       <c r="K69" t="n">
-        <v>2.987914227530814e-16</v>
+        <v>4.481805985433909e-18</v>
       </c>
       <c r="L69" t="n">
-        <v>0.9843720312288006</v>
+        <v>1.011863708668729</v>
       </c>
       <c r="M69" t="n">
-        <v>3.394718705730242e-17</v>
+        <v>1.089399587093618e-09</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.9716144251932689</v>
+      </c>
+      <c r="O69" t="n">
+        <v>4.879922955408561e-17</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1.001039492877473</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1.413590033734764e-15</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.9191724801141362</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1.076659596540155e-16</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0.9790136035952549</v>
+      </c>
+      <c r="U69" t="n">
+        <v>1.471600232500035e-10</v>
       </c>
     </row>
     <row r="70">
@@ -3293,40 +4965,64 @@
         <v>71.81818181818183</v>
       </c>
       <c r="B70" t="n">
-        <v>2.954214060137859</v>
+        <v>2.956878590789068</v>
       </c>
       <c r="C70" t="n">
-        <v>5.188238235230498e-17</v>
+        <v>5.519694891501037e-17</v>
       </c>
       <c r="D70" t="n">
-        <v>2.774475024185839</v>
+        <v>2.799514517893473</v>
       </c>
       <c r="E70" t="n">
-        <v>1.698128267031064e-16</v>
+        <v>6.843680799658805e-12</v>
       </c>
       <c r="F70" t="n">
-        <v>2.155069496495558</v>
+        <v>2.159054421288084</v>
       </c>
       <c r="G70" t="n">
-        <v>1.392278186406693e-17</v>
+        <v>4.811321359178669e-17</v>
       </c>
       <c r="H70" t="n">
-        <v>1.27828134252633</v>
+        <v>1.6942997146501</v>
       </c>
       <c r="I70" t="n">
-        <v>3.030305966727258e-15</v>
+        <v>7.561164995920178e-10</v>
       </c>
       <c r="J70" t="n">
-        <v>0.981045785664231</v>
+        <v>0.996974566398627</v>
       </c>
       <c r="K70" t="n">
-        <v>1.447307691463065e-16</v>
+        <v>8.892770380006873e-17</v>
       </c>
       <c r="L70" t="n">
-        <v>0.9857462926793475</v>
+        <v>1.016902284268712</v>
       </c>
       <c r="M70" t="n">
-        <v>2.609436161815989e-15</v>
+        <v>5.146679994112146e-10</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.9724648578096958</v>
+      </c>
+      <c r="O70" t="n">
+        <v>6.766992830734076e-17</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1.001040500803254</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1.018807962741819e-15</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.9216818395513979</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1.057435643308516e-16</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0.9806600728917743</v>
+      </c>
+      <c r="U70" t="n">
+        <v>9.60027845401736e-11</v>
       </c>
     </row>
     <row r="71">
@@ -3334,40 +5030,64 @@
         <v>72.72727272727273</v>
       </c>
       <c r="B71" t="n">
-        <v>2.958733346647131</v>
+        <v>2.961432178749886</v>
       </c>
       <c r="C71" t="n">
-        <v>1.084024127734903e-16</v>
+        <v>9.326457105282116e-18</v>
       </c>
       <c r="D71" t="n">
-        <v>2.785095018405322</v>
+        <v>2.808967816680835</v>
       </c>
       <c r="E71" t="n">
-        <v>1.828505335669555e-16</v>
+        <v>5.856405835098561e-12</v>
       </c>
       <c r="F71" t="n">
-        <v>2.175836672331686</v>
+        <v>2.181014156989058</v>
       </c>
       <c r="G71" t="n">
-        <v>8.79638658362914e-17</v>
+        <v>4.022319116524469e-16</v>
       </c>
       <c r="H71" t="n">
-        <v>1.311299526400263</v>
+        <v>1.71078267364569</v>
       </c>
       <c r="I71" t="n">
-        <v>3.007239961001957e-16</v>
+        <v>7.254074338908113e-10</v>
       </c>
       <c r="J71" t="n">
-        <v>0.981995831667394</v>
+        <v>0.9970647659003872</v>
       </c>
       <c r="K71" t="n">
-        <v>1.606791720780218e-16</v>
+        <v>2.147637687523568e-16</v>
       </c>
       <c r="L71" t="n">
-        <v>0.9870698516953702</v>
+        <v>1.023146347473555</v>
       </c>
       <c r="M71" t="n">
-        <v>1.648779637090332e-15</v>
+        <v>3.399797666854356e-10</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.9732999850878306</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1.534748415748587e-16</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1.00104152319615</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1.145213263169679e-16</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.9241477006394632</v>
+      </c>
+      <c r="S71" t="n">
+        <v>7.583126317516756e-17</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0.9821340376528247</v>
+      </c>
+      <c r="U71" t="n">
+        <v>4.010565638944267e-11</v>
       </c>
     </row>
     <row r="72">
@@ -3375,40 +5095,64 @@
         <v>73.63636363636365</v>
       </c>
       <c r="B72" t="n">
-        <v>2.963126115728135</v>
+        <v>2.965850038672234</v>
       </c>
       <c r="C72" t="n">
-        <v>3.450259652830233e-17</v>
+        <v>2.298836766833918e-16</v>
       </c>
       <c r="D72" t="n">
-        <v>2.795311699693535</v>
+        <v>2.818094388754363</v>
       </c>
       <c r="E72" t="n">
-        <v>2.195023455521879e-17</v>
+        <v>2.47424243852548e-11</v>
       </c>
       <c r="F72" t="n">
-        <v>2.195996531224798</v>
+        <v>2.202211766973162</v>
       </c>
       <c r="G72" t="n">
-        <v>3.863243061760062e-17</v>
+        <v>7.530479054001379e-17</v>
       </c>
       <c r="H72" t="n">
-        <v>1.346299435780854</v>
+        <v>1.727729323864534</v>
       </c>
       <c r="I72" t="n">
-        <v>1.81000887024568e-15</v>
+        <v>9.891868476154407e-10</v>
       </c>
       <c r="J72" t="n">
-        <v>0.9830390975767525</v>
+        <v>0.9971540636775874</v>
       </c>
       <c r="K72" t="n">
-        <v>2.352365782684948e-16</v>
+        <v>8.348187205077985e-17</v>
       </c>
       <c r="L72" t="n">
-        <v>0.9883502629713241</v>
+        <v>1.030830920505536</v>
       </c>
       <c r="M72" t="n">
-        <v>1.289685924289651e-16</v>
+        <v>3.765732200381001e-11</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.974127468823472</v>
+      </c>
+      <c r="O72" t="n">
+        <v>1.022965252343994e-16</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1.001042560116035</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4.300728930748669e-16</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.9265949075065671</v>
+      </c>
+      <c r="S72" t="n">
+        <v>1.087015200918744e-16</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0.9834386015671029</v>
+      </c>
+      <c r="U72" t="n">
+        <v>1.945593730910124e-10</v>
       </c>
     </row>
     <row r="73">
@@ -3416,40 +5160,64 @@
         <v>74.54545454545455</v>
       </c>
       <c r="B73" t="n">
-        <v>2.967397022823224</v>
+        <v>2.97013783093385</v>
       </c>
       <c r="C73" t="n">
-        <v>5.829298011489702e-17</v>
+        <v>9.878536466889531e-17</v>
       </c>
       <c r="D73" t="n">
-        <v>2.805145388907856</v>
+        <v>2.826908121955656</v>
       </c>
       <c r="E73" t="n">
-        <v>8.656166394454918e-17</v>
+        <v>3.823062391723369e-11</v>
       </c>
       <c r="F73" t="n">
-        <v>2.215571095219409</v>
+        <v>2.222685783660517</v>
       </c>
       <c r="G73" t="n">
-        <v>2.959287655411076e-17</v>
+        <v>1.314203251358408e-18</v>
       </c>
       <c r="H73" t="n">
-        <v>1.382914150961082</v>
+        <v>1.745168001760055</v>
       </c>
       <c r="I73" t="n">
-        <v>2.372902627114826e-15</v>
+        <v>2.311144137095358e-09</v>
       </c>
       <c r="J73" t="n">
-        <v>0.9842433621111326</v>
+        <v>0.9972435620408674</v>
       </c>
       <c r="K73" t="n">
-        <v>2.347594773541427e-16</v>
+        <v>2.6229027717415e-16</v>
       </c>
       <c r="L73" t="n">
-        <v>0.9895949202682502</v>
+        <v>1.040193866759406</v>
       </c>
       <c r="M73" t="n">
-        <v>8.387047745402545e-16</v>
+        <v>6.083356673201081e-10</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.9749580521139777</v>
+      </c>
+      <c r="O73" t="n">
+        <v>6.877373781346505e-18</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1.001043611624119</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4.61993016922609e-16</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.9290584234178039</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1.019137189306533e-16</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0.9845862024459275</v>
+      </c>
+      <c r="U73" t="n">
+        <v>7.340402391255659e-11</v>
       </c>
     </row>
     <row r="74">
@@ -3457,40 +5225,64 @@
         <v>75.45454545454547</v>
       </c>
       <c r="B74" t="n">
-        <v>2.971550513073285</v>
+        <v>2.974300907311868</v>
       </c>
       <c r="C74" t="n">
-        <v>7.125962130769966e-17</v>
+        <v>3.397864966622061e-17</v>
       </c>
       <c r="D74" t="n">
-        <v>2.814615141533958</v>
+        <v>2.835422284334331</v>
       </c>
       <c r="E74" t="n">
-        <v>3.412537888852586e-16</v>
+        <v>5.217533841329636e-11</v>
       </c>
       <c r="F74" t="n">
-        <v>2.234581570175325</v>
+        <v>2.242472187815664</v>
       </c>
       <c r="G74" t="n">
-        <v>3.501262850333515e-16</v>
+        <v>1.139128834747872e-16</v>
       </c>
       <c r="H74" t="n">
-        <v>1.420742341300993</v>
+        <v>1.76311676843305</v>
       </c>
       <c r="I74" t="n">
-        <v>2.330178127668578e-15</v>
+        <v>2.398834354048152e-10</v>
       </c>
       <c r="J74" t="n">
-        <v>0.9857342910703601</v>
+        <v>0.9973349361457076</v>
       </c>
       <c r="K74" t="n">
-        <v>3.406566430008822e-16</v>
+        <v>9.004240699015071e-17</v>
       </c>
       <c r="L74" t="n">
-        <v>0.9908111099289302</v>
+        <v>1.051450117373216</v>
       </c>
       <c r="M74" t="n">
-        <v>2.132853196506475e-16</v>
+        <v>1.336691831924362e-09</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.9758081037781647</v>
+      </c>
+      <c r="O74" t="n">
+        <v>6.473620955393265e-17</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1.001044677782859</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3.700489552322354e-16</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.931591530510975</v>
+      </c>
+      <c r="S74" t="n">
+        <v>2.484970114406383e-16</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0.9855945537562143</v>
+      </c>
+      <c r="U74" t="n">
+        <v>5.88536101215622e-11</v>
       </c>
     </row>
     <row r="75">
@@ -3498,40 +5290,64 @@
         <v>76.36363636363637</v>
       </c>
       <c r="B75" t="n">
-        <v>2.975590832465652</v>
+        <v>2.978344331660616</v>
       </c>
       <c r="C75" t="n">
-        <v>1.703615571340327e-16</v>
+        <v>2.028852138264899e-17</v>
       </c>
       <c r="D75" t="n">
-        <v>2.823738840291303</v>
+        <v>2.843649543364879</v>
       </c>
       <c r="E75" t="n">
-        <v>1.091177803732561e-16</v>
+        <v>3.067273492579448e-11</v>
       </c>
       <c r="F75" t="n">
-        <v>2.253048357966876</v>
+        <v>2.26160460922873</v>
       </c>
       <c r="G75" t="n">
-        <v>1.029424923639461e-16</v>
+        <v>1.333857192457119e-17</v>
       </c>
       <c r="H75" t="n">
-        <v>1.4593795615519</v>
+        <v>1.781582195307072</v>
       </c>
       <c r="I75" t="n">
-        <v>4.153095102446623e-16</v>
+        <v>2.372666977468134e-10</v>
       </c>
       <c r="J75" t="n">
-        <v>0.9877688021234723</v>
+        <v>0.9974309828223716</v>
       </c>
       <c r="K75" t="n">
-        <v>1.509732219773032e-17</v>
+        <v>1.379849381641142e-16</v>
       </c>
       <c r="L75" t="n">
-        <v>0.9920060761440639</v>
+        <v>1.064750503917901</v>
       </c>
       <c r="M75" t="n">
-        <v>2.147455732948048e-16</v>
+        <v>5.42436308848578e-11</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.9767049559505401</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1.622700920069444e-16</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1.001045758655393</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>6.211829339873971e-16</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.9342825338752315</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1.20125047591849e-16</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0.9864829587846163</v>
+      </c>
+      <c r="U75" t="n">
+        <v>2.425852015038609e-10</v>
       </c>
     </row>
     <row r="76">
@@ -3539,40 +5355,64 @@
         <v>77.27272727272727</v>
       </c>
       <c r="B76" t="n">
-        <v>2.979522038309915</v>
+        <v>2.982272898972075</v>
       </c>
       <c r="C76" t="n">
-        <v>2.314037611739929e-17</v>
+        <v>5.515431194598477e-17</v>
       </c>
       <c r="D76" t="n">
-        <v>2.832533280111107</v>
+        <v>2.851601986391673</v>
       </c>
       <c r="E76" t="n">
-        <v>1.871877199649837e-17</v>
+        <v>5.193677187989215e-12</v>
       </c>
       <c r="F76" t="n">
-        <v>2.27099107291732</v>
+        <v>2.280114510208239</v>
       </c>
       <c r="G76" t="n">
-        <v>2.658003808671254e-17</v>
+        <v>1.190637762106514e-17</v>
       </c>
       <c r="H76" t="n">
-        <v>1.498444396913225</v>
+        <v>1.800558441648173</v>
       </c>
       <c r="I76" t="n">
-        <v>1.446831094820619e-15</v>
+        <v>1.616657079954601e-10</v>
       </c>
       <c r="J76" t="n">
-        <v>0.9909283010063821</v>
+        <v>0.9975369229645159</v>
       </c>
       <c r="K76" t="n">
-        <v>1.151109231605105e-16</v>
+        <v>6.98364916681306e-17</v>
       </c>
       <c r="L76" t="n">
-        <v>0.9931870974785292</v>
+        <v>1.080132119336296</v>
       </c>
       <c r="M76" t="n">
-        <v>6.893547255928693e-16</v>
+        <v>2.720017786238804e-10</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.977699357626538</v>
+      </c>
+      <c r="O76" t="n">
+        <v>2.214407377852525e-16</v>
+      </c>
+      <c r="P76" t="n">
+        <v>1.001046854306058</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>6.321865049303886e-16</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.9372914851059481</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4.222819085030295e-17</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0.9872698728967801</v>
+      </c>
+      <c r="U76" t="n">
+        <v>5.156922237598384e-11</v>
       </c>
     </row>
     <row r="77">
@@ -3580,40 +5420,64 @@
         <v>78.18181818181819</v>
       </c>
       <c r="B77" t="n">
-        <v>2.983348009089628</v>
+        <v>2.986091152964378</v>
       </c>
       <c r="C77" t="n">
-        <v>4.564456650025865e-17</v>
+        <v>1.455741187815127e-17</v>
       </c>
       <c r="D77" t="n">
-        <v>2.84101424615688</v>
+        <v>2.859291141380842</v>
       </c>
       <c r="E77" t="n">
-        <v>3.608700099245018e-16</v>
+        <v>1.466479378899362e-11</v>
       </c>
       <c r="F77" t="n">
-        <v>2.288428561369969</v>
+        <v>2.298031353297398</v>
       </c>
       <c r="G77" t="n">
-        <v>6.538333744945147e-17</v>
+        <v>1.081722309755097e-17</v>
       </c>
       <c r="H77" t="n">
-        <v>1.537596481008789</v>
+        <v>1.820026875698071</v>
       </c>
       <c r="I77" t="n">
-        <v>1.100957468304511e-15</v>
+        <v>7.211459925056707e-11</v>
       </c>
       <c r="J77" t="n">
-        <v>0.9965867028187353</v>
+        <v>0.9976640216626664</v>
       </c>
       <c r="K77" t="n">
-        <v>6.779269281927879e-17</v>
+        <v>5.162144574385817e-17</v>
       </c>
       <c r="L77" t="n">
-        <v>0.9943615745705381</v>
+        <v>1.097478194892172</v>
       </c>
       <c r="M77" t="n">
-        <v>3.779356563134298e-16</v>
+        <v>3.996741540953663e-10</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.9788988143761171</v>
+      </c>
+      <c r="O77" t="n">
+        <v>9.113937266801797e-17</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1.001047964800389</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4.608409283641146e-16</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.940936677098888</v>
+      </c>
+      <c r="S77" t="n">
+        <v>7.931302389805156e-17</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0.9879717007462523</v>
+      </c>
+      <c r="U77" t="n">
+        <v>6.672165394243332e-11</v>
       </c>
     </row>
     <row r="78">
@@ -3621,40 +5485,64 @@
         <v>79.09090909090909</v>
       </c>
       <c r="B78" t="n">
-        <v>2.987072453728405</v>
+        <v>2.989803402323794</v>
       </c>
       <c r="C78" t="n">
-        <v>7.075051037862888e-19</v>
+        <v>7.654696282244116e-17</v>
       </c>
       <c r="D78" t="n">
-        <v>2.849196585509421</v>
+        <v>2.866727999807065</v>
       </c>
       <c r="E78" t="n">
-        <v>1.522404467639936e-16</v>
+        <v>9.278545281590966e-11</v>
       </c>
       <c r="F78" t="n">
-        <v>2.305378923513527</v>
+        <v>2.315382754557371</v>
       </c>
       <c r="G78" t="n">
-        <v>2.182567433051905e-16</v>
+        <v>3.855571753143885e-17</v>
       </c>
       <c r="H78" t="n">
-        <v>1.576546028496895</v>
+        <v>1.839956290858706</v>
       </c>
       <c r="I78" t="n">
-        <v>7.210527439355566e-16</v>
+        <v>4.49233690294273e-10</v>
       </c>
       <c r="J78" t="n">
-        <v>1.007304894980038</v>
+        <v>0.9978423181926417</v>
       </c>
       <c r="K78" t="n">
-        <v>2.390504352054831e-16</v>
+        <v>3.500418725623857e-18</v>
       </c>
       <c r="L78" t="n">
-        <v>0.9955371294008908</v>
+        <v>1.116509257256977</v>
       </c>
       <c r="M78" t="n">
-        <v>4.162685032107484e-16</v>
+        <v>7.563203204945423e-10</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.9805745326361278</v>
+      </c>
+      <c r="O78" t="n">
+        <v>7.155680378421739e-17</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1.001049090204877</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5.066378171473033e-16</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.9458971087387437</v>
+      </c>
+      <c r="S78" t="n">
+        <v>7.052920428719322e-17</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0.9886024338760158</v>
+      </c>
+      <c r="U78" t="n">
+        <v>6.437817921685526e-11</v>
       </c>
     </row>
     <row r="79">
@@ -3662,40 +5550,64 @@
         <v>80</v>
       </c>
       <c r="B79" t="n">
-        <v>2.990698920310201</v>
+        <v>2.993413735717485</v>
       </c>
       <c r="C79" t="n">
-        <v>3.154750550461529e-17</v>
+        <v>1.664480094423212e-17</v>
       </c>
       <c r="D79" t="n">
-        <v>2.857094273069463</v>
+        <v>2.873923038460747</v>
       </c>
       <c r="E79" t="n">
-        <v>1.207446077991885e-16</v>
+        <v>8.660971339509288e-12</v>
       </c>
       <c r="F79" t="n">
-        <v>2.321859536763222</v>
+        <v>2.332194623685399</v>
       </c>
       <c r="G79" t="n">
-        <v>1.39822442223674e-16</v>
+        <v>1.509468561481537e-16</v>
       </c>
       <c r="H79" t="n">
-        <v>1.615056300939043</v>
+        <v>1.860303789141458</v>
       </c>
       <c r="I79" t="n">
-        <v>9.889747704109331e-16</v>
+        <v>4.183337766273551e-10</v>
       </c>
       <c r="J79" t="n">
-        <v>1.024846155600071</v>
+        <v>0.9981874014678104</v>
       </c>
       <c r="K79" t="n">
-        <v>2.487305009365326e-16</v>
+        <v>2.732270879095439e-16</v>
       </c>
       <c r="L79" t="n">
-        <v>0.9967217170181957</v>
+        <v>1.136816100046849</v>
       </c>
       <c r="M79" t="n">
-        <v>7.254416920836612e-17</v>
+        <v>1.465537473182396e-09</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.9835849169889078</v>
+      </c>
+      <c r="O79" t="n">
+        <v>3.458804161201399e-17</v>
+      </c>
+      <c r="P79" t="n">
+        <v>1.001050230587095</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1.189654759601859e-16</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.9534761453398671</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1.368924497568681e-16</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0.9891737429909923</v>
+      </c>
+      <c r="U79" t="n">
+        <v>2.691818591106284e-14</v>
       </c>
     </row>
     <row r="80">
@@ -3703,40 +5615,64 @@
         <v>80.90909090909092</v>
       </c>
       <c r="B80" t="n">
-        <v>2.994230804288821</v>
+        <v>2.996926035681375</v>
       </c>
       <c r="C80" t="n">
-        <v>7.262895431680336e-17</v>
+        <v>1.284301737899759e-16</v>
       </c>
       <c r="D80" t="n">
-        <v>2.864720472193071</v>
+        <v>2.88088624237252</v>
       </c>
       <c r="E80" t="n">
-        <v>9.55105327949813e-17</v>
+        <v>2.716291859131309e-11</v>
       </c>
       <c r="F80" t="n">
-        <v>2.337887080140779</v>
+        <v>2.348491292142898</v>
       </c>
       <c r="G80" t="n">
-        <v>2.254017036674594e-16</v>
+        <v>6.922843356639665e-18</v>
       </c>
       <c r="H80" t="n">
-        <v>1.652941144159393</v>
+        <v>1.881016310406705</v>
       </c>
       <c r="I80" t="n">
-        <v>8.966198111816799e-17</v>
+        <v>7.103795071566927e-10</v>
       </c>
       <c r="J80" t="n">
-        <v>1.048057030655583</v>
+        <v>0.9997387265888241</v>
       </c>
       <c r="K80" t="n">
-        <v>1.239786373363871e-16</v>
+        <v>7.380291162151148e-17</v>
       </c>
       <c r="L80" t="n">
-        <v>0.9979237510938213</v>
+        <v>1.157923914692154</v>
       </c>
       <c r="M80" t="n">
-        <v>1.495041076580629e-16</v>
+        <v>8.381285656082425e-11</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.9907035765679653</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1.021159981214803e-16</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1.001051386015671</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4.109992363299873e-16</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.9639054853912263</v>
+      </c>
+      <c r="S80" t="n">
+        <v>7.536984587364511e-17</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0.9896952665814566</v>
+      </c>
+      <c r="U80" t="n">
+        <v>9.358094981952167e-11</v>
       </c>
     </row>
     <row r="81">
@@ -3744,40 +5680,64 @@
         <v>81.81818181818183</v>
       </c>
       <c r="B81" t="n">
-        <v>2.99767135622008</v>
+        <v>3.000343991478523</v>
       </c>
       <c r="C81" t="n">
-        <v>8.51881090100033e-17</v>
+        <v>5.994874072359953e-17</v>
       </c>
       <c r="D81" t="n">
-        <v>2.872087590519174</v>
+        <v>2.887627126100838</v>
       </c>
       <c r="E81" t="n">
-        <v>1.328723930032843e-16</v>
+        <v>5.472657091082338e-12</v>
       </c>
       <c r="F81" t="n">
-        <v>2.353477559213476</v>
+        <v>2.364295630377082</v>
       </c>
       <c r="G81" t="n">
-        <v>1.20603340794506e-16</v>
+        <v>6.094509558311895e-17</v>
       </c>
       <c r="H81" t="n">
-        <v>1.690059669996356</v>
+        <v>1.90203266191949</v>
       </c>
       <c r="I81" t="n">
-        <v>2.754897991888563e-15</v>
+        <v>1.327867539590045e-10</v>
       </c>
       <c r="J81" t="n">
-        <v>1.075108684445764</v>
+        <v>1.01591556170012</v>
       </c>
       <c r="K81" t="n">
-        <v>1.900311027008005e-17</v>
+        <v>1.383808531014724e-16</v>
       </c>
       <c r="L81" t="n">
-        <v>0.9991522451378532</v>
+        <v>1.179362491969481</v>
       </c>
       <c r="M81" t="n">
-        <v>4.035325117718779e-16</v>
+        <v>1.065442286153367e-10</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.9964239174262449</v>
+      </c>
+      <c r="O81" t="n">
+        <v>1.71697700982674e-16</v>
+      </c>
+      <c r="P81" t="n">
+        <v>1.001052556560326</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>8.744996687046669e-17</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.9715267976207016</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1.939828176359566e-16</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0.9901749524758164</v>
+      </c>
+      <c r="U81" t="n">
+        <v>3.817920968088219e-11</v>
       </c>
     </row>
     <row r="82">
@@ -3785,40 +5745,64 @@
         <v>82.72727272727273</v>
       </c>
       <c r="B82" t="n">
-        <v>3.001023689047316</v>
+        <v>3.003671111014039</v>
       </c>
       <c r="C82" t="n">
-        <v>1.769883663561622e-16</v>
+        <v>3.598886991999048e-17</v>
       </c>
       <c r="D82" t="n">
-        <v>2.879207331408967</v>
+        <v>2.894154756497179</v>
       </c>
       <c r="E82" t="n">
-        <v>1.695019131076606e-16</v>
+        <v>4.698250772221475e-12</v>
       </c>
       <c r="F82" t="n">
-        <v>2.36864633124548</v>
+        <v>2.379629155127415</v>
       </c>
       <c r="G82" t="n">
-        <v>2.726627774476774e-16</v>
+        <v>2.230902445432952e-16</v>
       </c>
       <c r="H82" t="n">
-        <v>1.726309702680208</v>
+        <v>1.923285918459325</v>
       </c>
       <c r="I82" t="n">
-        <v>1.06245805254958e-15</v>
+        <v>3.843791851332456e-10</v>
       </c>
       <c r="J82" t="n">
-        <v>1.104758082735208</v>
+        <v>1.049003221558559</v>
       </c>
       <c r="K82" t="n">
-        <v>1.159503543931988e-16</v>
+        <v>1.593730288787719e-17</v>
       </c>
       <c r="L82" t="n">
-        <v>1.000416971633803</v>
+        <v>1.200719831718759</v>
       </c>
       <c r="M82" t="n">
-        <v>7.371002666028566e-16</v>
+        <v>5.212832132371555e-10</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.9971511835416114</v>
+      </c>
+      <c r="O82" t="n">
+        <v>1.346250570387408e-16</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1.00105374229167</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>7.413438507952029e-17</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.9748873819645798</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3.613282986161115e-17</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0.9906193807876654</v>
+      </c>
+      <c r="U82" t="n">
+        <v>5.806043030353418e-11</v>
       </c>
     </row>
     <row r="83">
@@ -3826,40 +5810,64 @@
         <v>83.63636363636364</v>
       </c>
       <c r="B83" t="n">
-        <v>3.004290784969004</v>
+        <v>3.006910731884946</v>
       </c>
       <c r="C83" t="n">
-        <v>4.130168821138166e-17</v>
+        <v>1.824976564171199e-16</v>
       </c>
       <c r="D83" t="n">
-        <v>2.886090741380685</v>
+        <v>2.90047777304505</v>
       </c>
       <c r="E83" t="n">
-        <v>2.810536508847601e-16</v>
+        <v>8.808580496021388e-12</v>
       </c>
       <c r="F83" t="n">
-        <v>2.383408130290475</v>
+        <v>2.39451212772123</v>
       </c>
       <c r="G83" t="n">
-        <v>4.7586229225472e-17</v>
+        <v>5.349820996379169e-17</v>
       </c>
       <c r="H83" t="n">
-        <v>1.761621074576466</v>
+        <v>1.944705939864696</v>
       </c>
       <c r="I83" t="n">
-        <v>5.27419395061355e-16</v>
+        <v>3.702192487712915e-10</v>
       </c>
       <c r="J83" t="n">
-        <v>1.136168134048893</v>
+        <v>1.088124893203713</v>
       </c>
       <c r="K83" t="n">
-        <v>6.209828852738571e-17</v>
+        <v>1.575945709890804e-16</v>
       </c>
       <c r="L83" t="n">
-        <v>1.001728641737336</v>
+        <v>1.221670112099238</v>
       </c>
       <c r="M83" t="n">
-        <v>1.289088698564314e-15</v>
+        <v>2.74319741375961e-09</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.9973961091115563</v>
+      </c>
+      <c r="O83" t="n">
+        <v>4.003302025759526e-17</v>
+      </c>
+      <c r="P83" t="n">
+        <v>1.001054943281762</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>2.295642795288726e-16</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.9766219955331404</v>
+      </c>
+      <c r="S83" t="n">
+        <v>8.273887123416476e-17</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0.991034046003298</v>
+      </c>
+      <c r="U83" t="n">
+        <v>3.233053610835309e-11</v>
       </c>
     </row>
     <row r="84">
@@ -3867,40 +5875,64 @@
         <v>84.54545454545455</v>
       </c>
       <c r="B84" t="n">
-        <v>3.007475501914966</v>
+        <v>3.0100660316359</v>
       </c>
       <c r="C84" t="n">
-        <v>2.557659438744505e-17</v>
+        <v>3.791462470350702e-17</v>
       </c>
       <c r="D84" t="n">
-        <v>2.892748253883048</v>
+        <v>2.90660440883036</v>
       </c>
       <c r="E84" t="n">
-        <v>2.630617335771157e-17</v>
+        <v>5.739101773974004e-11</v>
       </c>
       <c r="F84" t="n">
-        <v>2.397777092014924</v>
+        <v>2.408963644179861</v>
       </c>
       <c r="G84" t="n">
-        <v>5.63674235109321e-18</v>
+        <v>2.870393168139016e-17</v>
       </c>
       <c r="H84" t="n">
-        <v>1.795949397933825</v>
+        <v>1.966221827029223</v>
       </c>
       <c r="I84" t="n">
-        <v>6.338342878381971e-16</v>
+        <v>5.417843745139751e-10</v>
       </c>
       <c r="J84" t="n">
-        <v>1.16872378385845</v>
+        <v>1.129505914546128</v>
       </c>
       <c r="K84" t="n">
-        <v>1.441022262683525e-16</v>
+        <v>4.860981082827291e-17</v>
       </c>
       <c r="L84" t="n">
-        <v>1.003099108531777</v>
+        <v>1.241979094246436</v>
       </c>
       <c r="M84" t="n">
-        <v>1.084753695390747e-16</v>
+        <v>4.652138198976383e-11</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.9975363790092916</v>
+      </c>
+      <c r="O84" t="n">
+        <v>2.188121049919279e-16</v>
+      </c>
+      <c r="P84" t="n">
+        <v>1.00105615960342</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4.168253778105019e-16</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.9777567665207724</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1.340866396159689e-16</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0.9914235948964977</v>
+      </c>
+      <c r="U84" t="n">
+        <v>8.772857518219003e-11</v>
       </c>
     </row>
     <row r="85">
@@ -3908,40 +5940,64 @@
         <v>85.45454545454547</v>
       </c>
       <c r="B85" t="n">
-        <v>3.010580579656164</v>
+        <v>3.013140037285597</v>
       </c>
       <c r="C85" t="n">
-        <v>6.986164192553299e-17</v>
+        <v>1.172613958672628e-16</v>
       </c>
       <c r="D85" t="n">
-        <v>2.89918972972139</v>
+        <v>2.912542510161329</v>
       </c>
       <c r="E85" t="n">
-        <v>2.836418845886706e-16</v>
+        <v>7.052867577770643e-13</v>
       </c>
       <c r="F85" t="n">
-        <v>2.41176677809103</v>
+        <v>2.42300171788097</v>
       </c>
       <c r="G85" t="n">
-        <v>3.636380925537778e-17</v>
+        <v>1.317367442684371e-16</v>
       </c>
       <c r="H85" t="n">
-        <v>1.829270609228771</v>
+        <v>1.987764131426899</v>
       </c>
       <c r="I85" t="n">
-        <v>8.459656426920122e-16</v>
+        <v>3.089532766078168e-10</v>
       </c>
       <c r="J85" t="n">
-        <v>1.201956628002984</v>
+        <v>1.171449983147231</v>
       </c>
       <c r="K85" t="n">
-        <v>4.573449779883194e-16</v>
+        <v>1.565764624266665e-16</v>
       </c>
       <c r="L85" t="n">
-        <v>1.004541597132689</v>
+        <v>1.261495343069289</v>
       </c>
       <c r="M85" t="n">
-        <v>4.730419237619178e-16</v>
+        <v>9.464811646068154e-10</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.997636948827156</v>
+      </c>
+      <c r="O85" t="n">
+        <v>1.544267038178178e-17</v>
+      </c>
+      <c r="P85" t="n">
+        <v>1.001057391330598</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>1.868844000759715e-16</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.9786167629130877</v>
+      </c>
+      <c r="S85" t="n">
+        <v>1.639647948180211e-16</v>
+      </c>
+      <c r="T85" t="n">
+        <v>0.9917920204236298</v>
+      </c>
+      <c r="U85" t="n">
+        <v>1.599746942897464e-11</v>
       </c>
     </row>
     <row r="86">
@@ -3949,40 +6005,64 @@
         <v>86.36363636363637</v>
       </c>
       <c r="B86" t="n">
-        <v>3.013608645571101</v>
+        <v>3.016135634182667</v>
       </c>
       <c r="C86" t="n">
-        <v>5.588716623056932e-17</v>
+        <v>2.297970263158624e-17</v>
       </c>
       <c r="D86" t="n">
-        <v>2.905424494422769</v>
+        <v>2.918299555820742</v>
       </c>
       <c r="E86" t="n">
-        <v>1.880671881125943e-16</v>
+        <v>2.184321463947809e-12</v>
       </c>
       <c r="F86" t="n">
-        <v>2.425390200037316</v>
+        <v>2.436643355451793</v>
       </c>
       <c r="G86" t="n">
-        <v>1.09972323309041e-16</v>
+        <v>4.106074854754505e-17</v>
       </c>
       <c r="H86" t="n">
-        <v>1.861576372883097</v>
+        <v>2.009266685524008</v>
       </c>
       <c r="I86" t="n">
-        <v>2.096344820189999e-16</v>
+        <v>2.624376766932877e-10</v>
       </c>
       <c r="J86" t="n">
-        <v>1.235508536951495</v>
+        <v>1.213098386139638</v>
       </c>
       <c r="K86" t="n">
-        <v>2.255660031464508e-16</v>
+        <v>2.379089700993676e-16</v>
       </c>
       <c r="L86" t="n">
-        <v>1.006070965179194</v>
+        <v>1.280135158308893</v>
       </c>
       <c r="M86" t="n">
-        <v>4.85787802277603e-16</v>
+        <v>2.588155098012075e-09</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.997717788982218</v>
+      </c>
+      <c r="O86" t="n">
+        <v>7.399382582810333e-17</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1.00105863853851</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4.946596160355606e-16</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.9793269823022621</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1.669528790105763e-16</v>
+      </c>
+      <c r="T86" t="n">
+        <v>0.9921428246473862</v>
+      </c>
+      <c r="U86" t="n">
+        <v>6.132664059225571e-12</v>
       </c>
     </row>
     <row r="87">
@@ -3990,40 +6070,64 @@
         <v>87.27272727272728</v>
       </c>
       <c r="B87" t="n">
-        <v>3.016562220090323</v>
+        <v>3.019055574244619</v>
       </c>
       <c r="C87" t="n">
-        <v>6.847748585274704e-17</v>
+        <v>4.508060288238864e-17</v>
       </c>
       <c r="D87" t="n">
-        <v>2.91146137279964</v>
+        <v>2.923882675177606</v>
       </c>
       <c r="E87" t="n">
-        <v>2.284410632246401e-17</v>
+        <v>1.180776974374607e-11</v>
       </c>
       <c r="F87" t="n">
-        <v>2.43865984241725</v>
+        <v>2.449904626504434</v>
       </c>
       <c r="G87" t="n">
-        <v>1.072677404264627e-16</v>
+        <v>5.255510054097437e-17</v>
       </c>
       <c r="H87" t="n">
-        <v>1.89287031265843</v>
+        <v>2.030668024735511</v>
       </c>
       <c r="I87" t="n">
-        <v>2.772681088076992e-16</v>
+        <v>4.075270467869128e-10</v>
       </c>
       <c r="J87" t="n">
-        <v>1.269107345786625</v>
+        <v>1.253995356317186</v>
       </c>
       <c r="K87" t="n">
-        <v>2.858545371310901e-16</v>
+        <v>2.260323527152983e-16</v>
       </c>
       <c r="L87" t="n">
-        <v>1.007703997422537</v>
+        <v>1.297866466773089</v>
       </c>
       <c r="M87" t="n">
-        <v>1.03940887008438e-15</v>
+        <v>2.579756812254883e-11</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.9977870710944811</v>
+      </c>
+      <c r="O87" t="n">
+        <v>3.037997570208122e-17</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1.00105990130325</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3.250725402871455e-16</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.9799445533646538</v>
+      </c>
+      <c r="S87" t="n">
+        <v>8.250746131892531e-17</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0.9924791557186741</v>
+      </c>
+      <c r="U87" t="n">
+        <v>5.518762295818005e-11</v>
       </c>
     </row>
     <row r="88">
@@ -4031,40 +6135,64 @@
         <v>88.1818181818182</v>
       </c>
       <c r="B88" t="n">
-        <v>3.019443721839153</v>
+        <v>3.021902483628791</v>
       </c>
       <c r="C88" t="n">
-        <v>1.385923230847211e-17</v>
+        <v>5.09196753312324e-17</v>
       </c>
       <c r="D88" t="n">
-        <v>2.917308720941659</v>
+        <v>2.929298665802325</v>
       </c>
       <c r="E88" t="n">
-        <v>7.028688745725154e-17</v>
+        <v>6.831862385121993e-12</v>
       </c>
       <c r="F88" t="n">
-        <v>2.451587685331364</v>
+        <v>2.462800727765746</v>
       </c>
       <c r="G88" t="n">
-        <v>9.662519423545855e-17</v>
+        <v>1.615395075405776e-16</v>
       </c>
       <c r="H88" t="n">
-        <v>1.923164981683734</v>
+        <v>2.051912343873429</v>
       </c>
       <c r="I88" t="n">
-        <v>1.11580668457145e-16</v>
+        <v>2.79517796492775e-11</v>
       </c>
       <c r="J88" t="n">
-        <v>1.302547891417924</v>
+        <v>1.293898400149</v>
       </c>
       <c r="K88" t="n">
-        <v>3.033542720715747e-16</v>
+        <v>1.427942720075526e-16</v>
       </c>
       <c r="L88" t="n">
-        <v>1.00945973818622</v>
+        <v>1.31469441292597</v>
       </c>
       <c r="M88" t="n">
-        <v>5.633962571777708e-16</v>
+        <v>1.88229088166518e-09</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.997848773865223</v>
+      </c>
+      <c r="O88" t="n">
+        <v>1.131926803603163e-17</v>
+      </c>
+      <c r="P88" t="n">
+        <v>1.001061179701985</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>7.089286983773033e-16</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0.9804991654644096</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5.629818399400995e-17</v>
+      </c>
+      <c r="T88" t="n">
+        <v>0.9928039283149035</v>
+      </c>
+      <c r="U88" t="n">
+        <v>6.436991403831756e-11</v>
       </c>
     </row>
     <row r="89">
@@ -4072,40 +6200,64 @@
         <v>89.09090909090909</v>
       </c>
       <c r="B89" t="n">
-        <v>3.022255472497192</v>
+        <v>3.024678869879776</v>
       </c>
       <c r="C89" t="n">
-        <v>5.960295412489868e-17</v>
+        <v>1.002452760366572e-17</v>
       </c>
       <c r="D89" t="n">
-        <v>2.922974455857812</v>
+        <v>2.934554010195635</v>
       </c>
       <c r="E89" t="n">
-        <v>6.3008094272166e-17</v>
+        <v>3.354628717955123e-12</v>
       </c>
       <c r="F89" t="n">
-        <v>2.464185226159111</v>
+        <v>2.475346042101412</v>
       </c>
       <c r="G89" t="n">
-        <v>3.765913113977203e-16</v>
+        <v>7.652336978316491e-17</v>
       </c>
       <c r="H89" t="n">
-        <v>1.952479461850097</v>
+        <v>2.072950055421287</v>
       </c>
       <c r="I89" t="n">
-        <v>7.721498216354503e-17</v>
+        <v>3.505959823531997e-10</v>
       </c>
       <c r="J89" t="n">
-        <v>1.335676869014461</v>
+        <v>1.332684713441657</v>
       </c>
       <c r="K89" t="n">
-        <v>2.758332355027522e-16</v>
+        <v>9.763055453282489e-17</v>
       </c>
       <c r="L89" t="n">
-        <v>1.011359865369118</v>
+        <v>1.330649627117287</v>
       </c>
       <c r="M89" t="n">
-        <v>3.720271440879665e-16</v>
+        <v>4.044731979740313e-10</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.997905079578025</v>
+      </c>
+      <c r="O89" t="n">
+        <v>1.066615987730676e-16</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0.9931199369289649</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>3.015616371937698e-11</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0.981007818526959</v>
+      </c>
+      <c r="S89" t="n">
+        <v>1.961678752566949e-17</v>
+      </c>
+      <c r="T89" t="n">
+        <v>1.001062473813143</v>
+      </c>
+      <c r="U89" t="n">
+        <v>2.975677511441526e-17</v>
       </c>
     </row>
     <row r="90">
@@ -4113,40 +6265,64 @@
         <v>90</v>
       </c>
       <c r="B90" t="n">
-        <v>3.024999701392204</v>
+        <v>3.02738712859422</v>
       </c>
       <c r="C90" t="n">
-        <v>8.895375401073983e-17</v>
+        <v>7.954703075344305e-18</v>
       </c>
       <c r="D90" t="n">
-        <v>2.928466082954217</v>
+        <v>2.939654891736892</v>
       </c>
       <c r="E90" t="n">
-        <v>2.268286267539664e-17</v>
+        <v>4.962086713004329e-12</v>
       </c>
       <c r="F90" t="n">
-        <v>2.476463500523158</v>
+        <v>2.487554192886438</v>
       </c>
       <c r="G90" t="n">
-        <v>1.729025843918961e-17</v>
+        <v>1.03338535217022e-17</v>
       </c>
       <c r="H90" t="n">
-        <v>1.980837483491888</v>
+        <v>2.093738005949198</v>
       </c>
       <c r="I90" t="n">
-        <v>2.108741644005433e-16</v>
+        <v>3.604940501691852e-10</v>
       </c>
       <c r="J90" t="n">
-        <v>1.36838089432701</v>
+        <v>1.370301161861506</v>
       </c>
       <c r="K90" t="n">
-        <v>1.041098511077913e-16</v>
+        <v>1.354902557052612e-16</v>
       </c>
       <c r="L90" t="n">
-        <v>1.013429109269508</v>
+        <v>1.345779209308615</v>
       </c>
       <c r="M90" t="n">
-        <v>8.431839120908949e-16</v>
+        <v>2.010732461723511e-10</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.9979572954618964</v>
+      </c>
+      <c r="O90" t="n">
+        <v>1.615122729940391e-16</v>
+      </c>
+      <c r="P90" t="n">
+        <v>1.001063783716295</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>2.880740312458364e-16</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0.981481013137621</v>
+      </c>
+      <c r="S90" t="n">
+        <v>2.69470360330819e-16</v>
+      </c>
+      <c r="T90" t="n">
+        <v>0.9934299670825743</v>
+      </c>
+      <c r="U90" t="n">
+        <v>1.115320134442742e-10</v>
       </c>
     </row>
     <row r="91">
@@ -4154,40 +6330,64 @@
         <v>90.90909090909092</v>
       </c>
       <c r="B91" t="n">
-        <v>3.027678549844455</v>
+        <v>3.030029549640029</v>
       </c>
       <c r="C91" t="n">
-        <v>9.963577396768373e-17</v>
+        <v>2.096077094097125e-17</v>
       </c>
       <c r="D91" t="n">
-        <v>2.933790721531006</v>
+        <v>2.944607209784485</v>
       </c>
       <c r="E91" t="n">
-        <v>2.6550146060859e-17</v>
+        <v>1.241782350444878e-12</v>
       </c>
       <c r="F91" t="n">
-        <v>2.488433102461579</v>
+        <v>2.499438094130776</v>
       </c>
       <c r="G91" t="n">
-        <v>6.534070957853528e-17</v>
+        <v>7.20728256502012e-17</v>
       </c>
       <c r="H91" t="n">
-        <v>2.008265966438127</v>
+        <v>2.114239405035081</v>
       </c>
       <c r="I91" t="n">
-        <v>5.39217713503879e-16</v>
+        <v>2.165255454784551e-12</v>
       </c>
       <c r="J91" t="n">
-        <v>1.400577230439889</v>
+        <v>1.406736012601024</v>
       </c>
       <c r="K91" t="n">
-        <v>3.564163758063832e-17</v>
+        <v>1.561124470087021e-16</v>
       </c>
       <c r="L91" t="n">
-        <v>1.015695718673725</v>
+        <v>1.360140162091626</v>
       </c>
       <c r="M91" t="n">
-        <v>3.329149414708105e-16</v>
+        <v>4.510339146339751e-10</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.9980062603546105</v>
+      </c>
+      <c r="O91" t="n">
+        <v>9.066619115114743e-17</v>
+      </c>
+      <c r="P91" t="n">
+        <v>1.00106510949177</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>7.638314991478738e-18</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0.9819256455752896</v>
+      </c>
+      <c r="S91" t="n">
+        <v>1.312222781627232e-16</v>
+      </c>
+      <c r="T91" t="n">
+        <v>0.9937369170027589</v>
+      </c>
+      <c r="U91" t="n">
+        <v>2.1169649634565e-11</v>
       </c>
     </row>
     <row r="92">
@@ -4195,40 +6395,64 @@
         <v>91.81818181818183</v>
       </c>
       <c r="B92" t="n">
-        <v>3.030294075276743</v>
+        <v>3.03260832296414</v>
       </c>
       <c r="C92" t="n">
-        <v>4.037677515230887e-17</v>
+        <v>6.995997152857452e-17</v>
       </c>
       <c r="D92" t="n">
-        <v>2.938955128455559</v>
+        <v>2.949416594192602</v>
       </c>
       <c r="E92" t="n">
-        <v>3.565770427438836e-17</v>
+        <v>8.107954320843417e-12</v>
       </c>
       <c r="F92" t="n">
-        <v>2.500104203803958</v>
+        <v>2.511009996730229</v>
       </c>
       <c r="G92" t="n">
-        <v>9.989575686702445e-17</v>
+        <v>4.299770521055733e-17</v>
       </c>
       <c r="H92" t="n">
-        <v>2.034793897433228</v>
+        <v>2.134423545829177</v>
       </c>
       <c r="I92" t="n">
-        <v>3.363958975568666e-16</v>
+        <v>2.435501875606849e-10</v>
       </c>
       <c r="J92" t="n">
-        <v>1.432206651095627</v>
+        <v>1.442002298740102</v>
       </c>
       <c r="K92" t="n">
-        <v>1.138884939302356e-16</v>
+        <v>9.51325406674897e-17</v>
       </c>
       <c r="L92" t="n">
-        <v>1.01819197512745</v>
+        <v>1.37379469025194</v>
       </c>
       <c r="M92" t="n">
-        <v>6.139604742050164e-16</v>
+        <v>8.880646369365665e-10</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.9980525435015447</v>
+      </c>
+      <c r="O92" t="n">
+        <v>9.922002993442651e-17</v>
+      </c>
+      <c r="P92" t="n">
+        <v>1.001066451221326</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>3.576241207616739e-16</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0.9823464822479834</v>
+      </c>
+      <c r="S92" t="n">
+        <v>6.582711202377908e-17</v>
+      </c>
+      <c r="T92" t="n">
+        <v>0.9940439405010468</v>
+      </c>
+      <c r="U92" t="n">
+        <v>1.065112137515881e-11</v>
       </c>
     </row>
     <row r="93">
@@ -4236,40 +6460,64 @@
         <v>92.72727272727275</v>
       </c>
       <c r="B93" t="n">
-        <v>3.032848255104245</v>
+        <v>3.035125544019916</v>
       </c>
       <c r="C93" t="n">
-        <v>1.909865347815575e-17</v>
+        <v>4.480524325603128e-17</v>
       </c>
       <c r="D93" t="n">
-        <v>2.943965720159879</v>
+        <v>2.954088418862704</v>
       </c>
       <c r="E93" t="n">
-        <v>8.096518211470031e-18</v>
+        <v>1.414279746459446e-11</v>
       </c>
       <c r="F93" t="n">
-        <v>2.511486572755373</v>
+        <v>2.522281531177671</v>
       </c>
       <c r="G93" t="n">
-        <v>6.517569637629505e-17</v>
+        <v>3.591971502195374e-18</v>
       </c>
       <c r="H93" t="n">
-        <v>2.060451473323462</v>
+        <v>2.154265398571407</v>
       </c>
       <c r="I93" t="n">
-        <v>4.925990283795164e-16</v>
+        <v>3.915079017563572e-10</v>
       </c>
       <c r="J93" t="n">
-        <v>1.463227971465026</v>
+        <v>1.476127733116284</v>
       </c>
       <c r="K93" t="n">
-        <v>6.364424224474594e-17</v>
+        <v>1.257405670526226e-17</v>
       </c>
       <c r="L93" t="n">
-        <v>1.020954753863571</v>
+        <v>1.386807032824676</v>
       </c>
       <c r="M93" t="n">
-        <v>1.690510015836905e-16</v>
+        <v>1.713907234988126e-10</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.9980965497390497</v>
+      </c>
+      <c r="O93" t="n">
+        <v>4.448807543179445e-17</v>
+      </c>
+      <c r="P93" t="n">
+        <v>1.001067808987937</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4.365079030248821e-17</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0.9827469639565283</v>
+      </c>
+      <c r="S93" t="n">
+        <v>2.114941358091254e-16</v>
+      </c>
+      <c r="T93" t="n">
+        <v>0.9943546240392976</v>
+      </c>
+      <c r="U93" t="n">
+        <v>6.896042316810057e-11</v>
       </c>
     </row>
     <row r="94">
@@ -4277,40 +6525,64 @@
         <v>93.63636363636364</v>
       </c>
       <c r="B94" t="n">
-        <v>3.035342990417438</v>
+        <v>3.0375832188428</v>
       </c>
       <c r="C94" t="n">
-        <v>6.100891426173643e-18</v>
+        <v>2.22384088050261e-18</v>
       </c>
       <c r="D94" t="n">
-        <v>2.948828593095528</v>
+        <v>2.958627814969382</v>
       </c>
       <c r="E94" t="n">
-        <v>1.04500812895794e-16</v>
+        <v>1.251625165558276e-11</v>
       </c>
       <c r="F94" t="n">
-        <v>2.522589591698642</v>
+        <v>2.53326374703824</v>
       </c>
       <c r="G94" t="n">
-        <v>3.755685208549913e-17</v>
+        <v>9.150697251559743e-17</v>
       </c>
       <c r="H94" t="n">
-        <v>2.085269452644492</v>
+        <v>2.173745109990286</v>
       </c>
       <c r="I94" t="n">
-        <v>3.325028335836461e-16</v>
+        <v>2.279516223736372e-10</v>
       </c>
       <c r="J94" t="n">
-        <v>1.493613859575601</v>
+        <v>1.509148459427288</v>
       </c>
       <c r="K94" t="n">
-        <v>1.035614966270014e-16</v>
+        <v>3.782420357911856e-17</v>
       </c>
       <c r="L94" t="n">
-        <v>1.024026126286422</v>
+        <v>1.399241369778747</v>
       </c>
       <c r="M94" t="n">
-        <v>8.040588820934959e-16</v>
+        <v>5.680693383290415e-10</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.9981385787899735</v>
+      </c>
+      <c r="O94" t="n">
+        <v>9.984030536062675e-17</v>
+      </c>
+      <c r="P94" t="n">
+        <v>1.001069182875311</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4.676944613898395e-16</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0.9831296701040069</v>
+      </c>
+      <c r="S94" t="n">
+        <v>2.064843378065827e-16</v>
+      </c>
+      <c r="T94" t="n">
+        <v>0.9946732245775952</v>
+      </c>
+      <c r="U94" t="n">
+        <v>2.82903673263575e-11</v>
       </c>
     </row>
     <row r="95">
@@ -4318,40 +6590,64 @@
         <v>94.54545454545455</v>
       </c>
       <c r="B95" t="n">
-        <v>3.037780109470394</v>
+        <v>3.039983268800352</v>
       </c>
       <c r="C95" t="n">
-        <v>2.882017550502386e-17</v>
+        <v>1.212840689993343e-16</v>
       </c>
       <c r="D95" t="n">
-        <v>2.953549542767864</v>
+        <v>2.963039683107514</v>
       </c>
       <c r="E95" t="n">
-        <v>8.913069175969152e-17</v>
+        <v>2.870085308550392e-12</v>
       </c>
       <c r="F95" t="n">
-        <v>2.53342227422988</v>
+        <v>2.543967149463687</v>
       </c>
       <c r="G95" t="n">
-        <v>2.299849540464435e-17</v>
+        <v>5.927013144763583e-17</v>
       </c>
       <c r="H95" t="n">
-        <v>2.109278669698901</v>
+        <v>2.19284746604647</v>
       </c>
       <c r="I95" t="n">
-        <v>8.165996640737695e-16</v>
+        <v>7.945394505509239e-11</v>
       </c>
       <c r="J95" t="n">
-        <v>1.523347623657914</v>
+        <v>1.541105123409659</v>
       </c>
       <c r="K95" t="n">
-        <v>1.911897030566738e-17</v>
+        <v>4.126121298228096e-17</v>
       </c>
       <c r="L95" t="n">
-        <v>1.027453994140031</v>
+        <v>1.411160518670309</v>
       </c>
       <c r="M95" t="n">
-        <v>1.07741691295521e-16</v>
+        <v>7.915273053339468e-10</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.9981788604862358</v>
+      </c>
+      <c r="O95" t="n">
+        <v>1.449872348432125e-16</v>
+      </c>
+      <c r="P95" t="n">
+        <v>1.001070572968486</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>7.425191308341747e-19</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0.9834965996953507</v>
+      </c>
+      <c r="S95" t="n">
+        <v>1.098199750323316e-16</v>
+      </c>
+      <c r="T95" t="n">
+        <v>0.9950049964357948</v>
+      </c>
+      <c r="U95" t="n">
+        <v>5.203553237492471e-11</v>
       </c>
     </row>
     <row r="96">
@@ -4359,40 +6655,64 @@
         <v>95.45454545454547</v>
       </c>
       <c r="B96" t="n">
-        <v>3.040161370985902</v>
+        <v>3.042327535040497</v>
       </c>
       <c r="C96" t="n">
-        <v>6.193274419495776e-17</v>
+        <v>2.61324650572127e-18</v>
       </c>
       <c r="D96" t="n">
-        <v>2.958134081461036</v>
+        <v>2.967328704902946</v>
       </c>
       <c r="E96" t="n">
-        <v>9.392110198027154e-17</v>
+        <v>1.18164332205048e-11</v>
       </c>
       <c r="F96" t="n">
-        <v>2.543993281446187</v>
+        <v>2.554401732995482</v>
       </c>
       <c r="G96" t="n">
-        <v>2.063996858539132e-17</v>
+        <v>1.040398288506274e-16</v>
       </c>
       <c r="H96" t="n">
-        <v>2.132509674756257</v>
+        <v>2.21156134815883</v>
       </c>
       <c r="I96" t="n">
-        <v>5.35839390838194e-16</v>
+        <v>2.078319167794167e-10</v>
       </c>
       <c r="J96" t="n">
-        <v>1.552420741298596</v>
+        <v>1.57204038259191</v>
       </c>
       <c r="K96" t="n">
-        <v>7.007593472771069e-17</v>
+        <v>7.217567651291548e-17</v>
       </c>
       <c r="L96" t="n">
-        <v>1.031292739614079</v>
+        <v>1.422625209502347</v>
       </c>
       <c r="M96" t="n">
-        <v>7.429707181762289e-16</v>
+        <v>8.693475799603064e-10</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.9982175766427756</v>
+      </c>
+      <c r="O96" t="n">
+        <v>7.317685889473758e-17</v>
+      </c>
+      <c r="P96" t="n">
+        <v>1.001071979353712</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>1.423027902534458e-16</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0.9838493485737151</v>
+      </c>
+      <c r="S96" t="n">
+        <v>2.587018446622517e-17</v>
+      </c>
+      <c r="T96" t="n">
+        <v>0.9953566626601058</v>
+      </c>
+      <c r="U96" t="n">
+        <v>5.578577396595313e-11</v>
       </c>
     </row>
     <row r="97">
@@ -4400,40 +6720,64 @@
         <v>96.36363636363637</v>
       </c>
       <c r="B97" t="n">
-        <v>3.042488467288404</v>
+        <v>3.04461778266035</v>
       </c>
       <c r="C97" t="n">
-        <v>7.752268697008357e-17</v>
+        <v>1.144224208748226e-16</v>
       </c>
       <c r="D97" t="n">
-        <v>2.962587454755275</v>
+        <v>2.97149935446991</v>
       </c>
       <c r="E97" t="n">
-        <v>2.920991062056805e-17</v>
+        <v>1.522054900627617e-13</v>
       </c>
       <c r="F97" t="n">
-        <v>2.554310937506877</v>
+        <v>2.564577012883537</v>
       </c>
       <c r="G97" t="n">
-        <v>4.758204096035814e-17</v>
+        <v>6.182034896706765e-17</v>
       </c>
       <c r="H97" t="n">
-        <v>2.154992471774936</v>
+        <v>2.229879209451522</v>
       </c>
       <c r="I97" t="n">
-        <v>3.884916782445055e-16</v>
+        <v>5.963724159536652e-12</v>
       </c>
       <c r="J97" t="n">
-        <v>1.580830952845999</v>
+        <v>1.601997326220193</v>
       </c>
       <c r="K97" t="n">
-        <v>1.841611792288146e-17</v>
+        <v>1.618681219859947e-16</v>
       </c>
       <c r="L97" t="n">
-        <v>1.035603868736636</v>
+        <v>1.433693728344008</v>
       </c>
       <c r="M97" t="n">
-        <v>4.886408865378591e-16</v>
+        <v>8.128677704698104e-10</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.9982548751784606</v>
+      </c>
+      <c r="O97" t="n">
+        <v>4.818391143218442e-17</v>
+      </c>
+      <c r="P97" t="n">
+        <v>1.001073402118221</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>3.46626464975167e-17</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0.9841892253710095</v>
+      </c>
+      <c r="S97" t="n">
+        <v>4.071867670414024e-17</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0.9957371024992187</v>
+      </c>
+      <c r="U97" t="n">
+        <v>1.854222697123999e-10</v>
       </c>
     </row>
     <row r="98">
@@ -4441,40 +6785,64 @@
         <v>97.27272727272728</v>
       </c>
       <c r="B98" t="n">
-        <v>3.044763027274635</v>
+        <v>3.046855704615526</v>
       </c>
       <c r="C98" t="n">
-        <v>3.315344062674091e-17</v>
+        <v>5.602800469983991e-17</v>
       </c>
       <c r="D98" t="n">
-        <v>2.966914656929357</v>
+        <v>2.975555908278252</v>
       </c>
       <c r="E98" t="n">
-        <v>1.904364516331003e-17</v>
+        <v>9.666666870566554e-12</v>
       </c>
       <c r="F98" t="n">
-        <v>2.564383244491789</v>
+        <v>2.574502054126362</v>
       </c>
       <c r="G98" t="n">
-        <v>4.473827133761476e-17</v>
+        <v>4.649465180521333e-17</v>
       </c>
       <c r="H98" t="n">
-        <v>2.176756331263394</v>
+        <v>2.247796575786235</v>
       </c>
       <c r="I98" t="n">
-        <v>5.160560545744136e-18</v>
+        <v>3.226068834891431e-12</v>
       </c>
       <c r="J98" t="n">
-        <v>1.608580785134125</v>
+        <v>1.631018480276035</v>
       </c>
       <c r="K98" t="n">
-        <v>3.324135356062914e-18</v>
+        <v>1.426747343209387e-16</v>
       </c>
       <c r="L98" t="n">
-        <v>1.040456617083891</v>
+        <v>1.444421860285235</v>
       </c>
       <c r="M98" t="n">
-        <v>1.257203312506324e-15</v>
+        <v>2.007372452992956e-10</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.9982908795621394</v>
+      </c>
+      <c r="O98" t="n">
+        <v>1.981893652633799e-17</v>
+      </c>
+      <c r="P98" t="n">
+        <v>1.001074841350582</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>3.316473558474147e-16</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0.9845173299831731</v>
+      </c>
+      <c r="S98" t="n">
+        <v>1.293133674208426e-16</v>
+      </c>
+      <c r="T98" t="n">
+        <v>0.9961583789479105</v>
+      </c>
+      <c r="U98" t="n">
+        <v>7.674035265919029e-11</v>
       </c>
     </row>
     <row r="99">
@@ -4482,40 +6850,64 @@
         <v>98.1818181818182</v>
       </c>
       <c r="B99" t="n">
-        <v>3.046986619231455</v>
+        <v>3.049042925388713</v>
       </c>
       <c r="C99" t="n">
-        <v>6.977641052231753e-17</v>
+        <v>1.483637356092213e-16</v>
       </c>
       <c r="D99" t="n">
-        <v>2.97112044533333</v>
+        <v>2.979502455671674</v>
       </c>
       <c r="E99" t="n">
-        <v>4.053986572103375e-17</v>
+        <v>3.209471438170102e-11</v>
       </c>
       <c r="F99" t="n">
-        <v>2.574217896581016</v>
+        <v>2.584185498419927</v>
       </c>
       <c r="G99" t="n">
-        <v>5.968435592660351e-17</v>
+        <v>3.457168666437525e-17</v>
       </c>
       <c r="H99" t="n">
-        <v>2.197829660826939</v>
+        <v>2.265311592601518</v>
       </c>
       <c r="I99" t="n">
-        <v>1.909968078819891e-16</v>
+        <v>1.896456441492568e-10</v>
       </c>
       <c r="J99" t="n">
-        <v>1.635676404586943</v>
+        <v>1.659145193174775</v>
       </c>
       <c r="K99" t="n">
-        <v>1.430609081565937e-16</v>
+        <v>1.527381201502561e-16</v>
       </c>
       <c r="L99" t="n">
-        <v>1.045928475472565</v>
+        <v>1.454862965614477</v>
       </c>
       <c r="M99" t="n">
-        <v>6.219458857656415e-16</v>
+        <v>4.684895421255799e-10</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.9983256953507653</v>
+      </c>
+      <c r="O99" t="n">
+        <v>1.40865640251095e-17</v>
+      </c>
+      <c r="P99" t="n">
+        <v>1.001076297140207</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>3.896155517512268e-17</v>
+      </c>
+      <c r="R99" t="n">
+        <v>0.9848346084823258</v>
+      </c>
+      <c r="S99" t="n">
+        <v>1.117236176066131e-16</v>
+      </c>
+      <c r="T99" t="n">
+        <v>0.9966372747030403</v>
+      </c>
+      <c r="U99" t="n">
+        <v>4.671836341549654e-11</v>
       </c>
     </row>
     <row r="100">
@@ -4523,40 +6915,64 @@
         <v>99.09090909090909</v>
       </c>
       <c r="B100" t="n">
-        <v>3.049160753509764</v>
+        <v>3.051181004434563</v>
       </c>
       <c r="C100" t="n">
-        <v>7.200628176928049e-17</v>
+        <v>2.047845709446826e-18</v>
       </c>
       <c r="D100" t="n">
-        <v>2.97520935380934</v>
+        <v>2.983342907870226</v>
       </c>
       <c r="E100" t="n">
-        <v>1.40345691813764e-16</v>
+        <v>9.220120396298032e-12</v>
       </c>
       <c r="F100" t="n">
-        <v>2.583822293581749</v>
+        <v>2.593635589185619</v>
       </c>
       <c r="G100" t="n">
-        <v>1.267093433643388e-16</v>
+        <v>8.447334073010582e-17</v>
       </c>
       <c r="H100" t="n">
-        <v>2.21823991982157</v>
+        <v>2.282424615013783</v>
       </c>
       <c r="I100" t="n">
-        <v>1.539397434304965e-16</v>
+        <v>5.63727610726437e-11</v>
       </c>
       <c r="J100" t="n">
-        <v>1.662126723502122</v>
+        <v>1.686417271222657</v>
       </c>
       <c r="K100" t="n">
-        <v>1.60201965606795e-16</v>
+        <v>2.590788195494838e-16</v>
       </c>
       <c r="L100" t="n">
-        <v>1.052105575304612</v>
+        <v>1.465068205057469</v>
       </c>
       <c r="M100" t="n">
-        <v>6.927255853395003e-16</v>
+        <v>1.765841461284326e-10</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.9983594148783649</v>
+      </c>
+      <c r="O100" t="n">
+        <v>4.026945184194384e-17</v>
+      </c>
+      <c r="P100" t="n">
+        <v>1.001077769578099</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>3.252335972358673e-16</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0.9851418929265747</v>
+      </c>
+      <c r="S100" t="n">
+        <v>4.861118971471502e-18</v>
+      </c>
+      <c r="T100" t="n">
+        <v>0.997197575178206</v>
+      </c>
+      <c r="U100" t="n">
+        <v>3.850888031720432e-11</v>
       </c>
     </row>
     <row r="101">
@@ -4564,40 +6980,64 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>3.051286885062672</v>
+        <v>3.053271439416665</v>
       </c>
       <c r="C101" t="n">
-        <v>3.839175726142754e-17</v>
+        <v>1.391846240492115e-16</v>
       </c>
       <c r="D101" t="n">
-        <v>2.979185705231973</v>
+        <v>2.987081006941557</v>
       </c>
       <c r="E101" t="n">
-        <v>4.022107874879452e-17</v>
+        <v>9.315566456841959e-12</v>
       </c>
       <c r="F101" t="n">
-        <v>2.593203553827907</v>
+        <v>2.602860194832467</v>
       </c>
       <c r="G101" t="n">
-        <v>2.14895304489558e-17</v>
+        <v>8.469465081023443e-18</v>
       </c>
       <c r="H101" t="n">
-        <v>2.238013567570357</v>
+        <v>2.299137842910861</v>
       </c>
       <c r="I101" t="n">
-        <v>2.904311364995645e-17</v>
+        <v>6.825523717867135e-11</v>
       </c>
       <c r="J101" t="n">
-        <v>1.687942701800686</v>
+        <v>1.712872778670669</v>
       </c>
       <c r="K101" t="n">
-        <v>2.801647012389253e-17</v>
+        <v>2.742788647964535e-16</v>
       </c>
       <c r="L101" t="n">
-        <v>1.059082843112553</v>
+        <v>1.475086810039657</v>
       </c>
       <c r="M101" t="n">
-        <v>1.246779819650844e-15</v>
+        <v>1.111029819117821e-09</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.9983921207571694</v>
+      </c>
+      <c r="O101" t="n">
+        <v>9.349963648992739e-17</v>
+      </c>
+      <c r="P101" t="n">
+        <v>1.001079258756128</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>4.619756482678445e-16</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0.9854399314286957</v>
+      </c>
+      <c r="S101" t="n">
+        <v>1.754090870710926e-17</v>
+      </c>
+      <c r="T101" t="n">
+        <v>0.997873339233349</v>
+      </c>
+      <c r="U101" t="n">
+        <v>5.23132636863608e-12</v>
       </c>
     </row>
   </sheetData>
